--- a/data/IntroStats/DataForANOVA.xlsx
+++ b/data/IntroStats/DataForANOVA.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamgilbert/Library/CloudStorage/GoogleDrive-agilbertmath@gmail.com/My Drive/MAT240 New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5951E115-081F-0344-8EAE-497E1710095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B027967-DFFA-A94D-8819-FA68186C70B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="880" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{D2B178A2-BD82-344D-BAC1-8066A9950292}"/>
+    <workbookView xWindow="-31160" yWindow="-280" windowWidth="28040" windowHeight="17440" xr2:uid="{D2B178A2-BD82-344D-BAC1-8066A9950292}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyDrinkMarketing" sheetId="1" r:id="rId1"/>
     <sheet name="MobileScreentime" sheetId="2" r:id="rId2"/>
     <sheet name="MonthlyStreaming" sheetId="3" r:id="rId3"/>
-    <sheet name="FrisbeeDistancs" sheetId="4" r:id="rId4"/>
+    <sheet name="FrisbeeDistances" sheetId="4" r:id="rId4"/>
     <sheet name="InfluencerLikes" sheetId="5" r:id="rId5"/>
     <sheet name="ConsoleReactionTimes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +171,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -194,9 +202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,15 +839,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DBF98D-88B5-7B4C-9B48-449261E0C3E8}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,8 +864,21 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -853,10 +886,23 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>127.45059999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12745.06</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -864,10 +910,23 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>119.3763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11937.63</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -875,10 +934,23 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>132.0659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13206.59</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -886,10 +958,23 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>136.34639999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13634.64</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -897,10 +982,23 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>112.4636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11246.36</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -908,10 +1006,23 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>124.0014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12400.140000000001</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -919,10 +1030,23 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>118.8194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11881.94</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -930,10 +1054,23 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>127.57899999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12757.9</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -941,10 +1078,23 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>117.9508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11795.08</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -952,10 +1102,23 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>133.4152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13341.52</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -963,10 +1126,23 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>153.40129999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15340.13</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -974,10 +1150,23 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>123.2398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12323.98</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -985,10 +1174,23 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>146.57939999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14657.939999999999</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -996,10 +1198,23 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>162.6369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16263.69</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1007,10 +1222,23 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>121.5294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12152.939999999999</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1018,10 +1246,23 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>141.62119999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14162.119999999999</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1029,10 +1270,23 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>137.90559999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13790.56</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1040,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>163.77780000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16377.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1051,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>148.62289999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14862.289999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1062,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>144.99019999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14499.019999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1073,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>92.927899999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9292.7899999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1084,10 +1338,10 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>111.3582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11135.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1095,10 +1349,10 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>94.514799999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9451.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1106,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>93.031300000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9303.130000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1117,10 +1371,10 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>101.3244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10132.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1128,10 +1382,10 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>96.471199999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9647.119999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1139,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>104.1421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10414.209999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1150,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>108.5856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10858.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1161,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>97.966999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9796.7000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1172,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>102.70780000000001</v>
+        <v>10270.780000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9856,8 +10110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF245CD-3A50-A74C-9921-53477268C6C3}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/IntroStats/DataForANOVA.xlsx
+++ b/data/IntroStats/DataForANOVA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamgilbert/Library/CloudStorage/GoogleDrive-agilbertmath@gmail.com/My Drive/MAT240 New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B027967-DFFA-A94D-8819-FA68186C70B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C581C-60D4-FB40-8202-9C5C5354BBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31160" yWindow="-280" windowWidth="28040" windowHeight="17440" xr2:uid="{D2B178A2-BD82-344D-BAC1-8066A9950292}"/>
+    <workbookView xWindow="-33620" yWindow="-320" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{D2B178A2-BD82-344D-BAC1-8066A9950292}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyDrinkMarketing" sheetId="1" r:id="rId1"/>
     <sheet name="MobileScreentime" sheetId="2" r:id="rId2"/>
     <sheet name="MonthlyStreaming" sheetId="3" r:id="rId3"/>
-    <sheet name="FrisbeeDistances" sheetId="4" r:id="rId4"/>
+    <sheet name="DiscDistances" sheetId="4" r:id="rId4"/>
     <sheet name="InfluencerLikes" sheetId="5" r:id="rId5"/>
     <sheet name="ConsoleReactionTimes" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -202,12 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DBF98D-88B5-7B4C-9B48-449261E0C3E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -864,19 +862,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -888,19 +873,6 @@
       <c r="C2">
         <v>12745.06</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -912,19 +884,6 @@
       <c r="C3">
         <v>11937.63</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -936,19 +895,6 @@
       <c r="C4">
         <v>13206.59</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -960,19 +906,11 @@
       <c r="C5">
         <v>13634.64</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -984,19 +922,6 @@
       <c r="C6">
         <v>11246.36</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1008,19 +933,6 @@
       <c r="C7">
         <v>12400.140000000001</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1032,19 +944,6 @@
       <c r="C8">
         <v>11881.94</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1056,19 +955,6 @@
       <c r="C9">
         <v>12757.9</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1080,19 +966,6 @@
       <c r="C10">
         <v>11795.08</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1104,19 +977,6 @@
       <c r="C11">
         <v>13341.52</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1128,19 +988,13 @@
       <c r="C12">
         <v>15340.13</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1152,19 +1006,6 @@
       <c r="C13">
         <v>12323.98</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1176,19 +1017,6 @@
       <c r="C14">
         <v>14657.939999999999</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1200,19 +1028,6 @@
       <c r="C15">
         <v>16263.69</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1224,21 +1039,8 @@
       <c r="C16">
         <v>12152.939999999999</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1248,21 +1050,8 @@
       <c r="C17">
         <v>14162.119999999999</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1272,21 +1061,8 @@
       <c r="C18">
         <v>13790.56</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1297,7 +1073,7 @@
         <v>16377.78</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1308,7 +1084,7 @@
         <v>14862.289999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1319,7 +1095,7 @@
         <v>14499.019999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1330,7 +1106,7 @@
         <v>9292.7899999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1341,7 +1117,7 @@
         <v>11135.82</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1352,7 +1128,7 @@
         <v>9451.48</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1363,7 +1139,7 @@
         <v>9303.130000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1374,7 +1150,7 @@
         <v>10132.44</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1385,7 +1161,7 @@
         <v>9647.119999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1396,7 +1172,7 @@
         <v>10414.209999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1407,7 +1183,7 @@
         <v>10858.56</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1418,7 +1194,7 @@
         <v>9796.7000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1438,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B85B386-7724-0F44-AD34-CE816ECE2A5F}">
   <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2538,7 +2314,7 @@
   <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2556,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>12.779307237839699</v>
+        <v>44.727575332438946</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2564,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>13.604304189665299</v>
+        <v>47.615064663828548</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2572,7 +2348,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18.636190597804202</v>
+        <v>65.226667092314699</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2580,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>18.7506210572841</v>
+        <v>65.627173700494353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2588,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>15.622429237881001</v>
+        <v>54.678502332583506</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2596,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>14.707763794541</v>
+        <v>51.477173280893503</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2604,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>15.1089466642968</v>
+        <v>52.881313325038803</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2612,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>17.5010512354879</v>
+        <v>61.253679324207653</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2620,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>18.452689510628701</v>
+        <v>64.584413287200448</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2628,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>14.778750549146199</v>
+        <v>51.725626922011699</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2636,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13.7091625952262</v>
+        <v>47.982069083291698</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2644,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13.9131631544005</v>
+        <v>48.696071040401748</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2652,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.6796904544118</v>
+        <v>47.8789165904413</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2660,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>17.1199212600708</v>
+        <v>59.919724410247802</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2668,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>15.420358360202799</v>
+        <v>53.971254260709799</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2676,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>13.0202895905198</v>
+        <v>45.571013566819303</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2684,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>17.820736649062599</v>
+        <v>62.3725782717191</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2692,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>14.7320811163365</v>
+        <v>51.562283907177751</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2700,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>19.4709975078034</v>
+        <v>68.148491277311905</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2708,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>12.1412182970739</v>
+        <v>42.494264039758647</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2716,7 +2492,7 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>10.187092966274299</v>
+        <v>35.654825381960052</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2724,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>11.0579770109597</v>
+        <v>38.702919538358948</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2732,7 +2508,7 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>13.461244816615601</v>
+        <v>47.114356858154601</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2740,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>12.2549840241072</v>
+        <v>42.8924440843752</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2748,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>17.340655496250299</v>
+        <v>60.692294236876052</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2756,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>16.844426357480099</v>
+        <v>58.955492251180345</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2764,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>19.9726077739228</v>
+        <v>69.904127208729804</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2772,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>16.2821256603496</v>
+        <v>56.987439811223595</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2780,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>15.506107617717699</v>
+        <v>54.271376662011946</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2788,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>14.6537472040688</v>
+        <v>51.288115214240804</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2796,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>15.4894549584637</v>
+        <v>54.213092354622951</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2804,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="B33">
-        <v>19.928129742077701</v>
+        <v>69.748454097271946</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2812,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>13.361069559426101</v>
+        <v>46.763743457991353</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2820,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>12.8202301794371</v>
+        <v>44.870805628029849</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2828,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <v>16.022754420916598</v>
+        <v>56.079640473208094</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -2836,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>13.072751331620101</v>
+        <v>45.754629660670354</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -2844,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="B38">
-        <v>17.314760553624801</v>
+        <v>60.601661937686799</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2852,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>16.3553322566741</v>
+        <v>57.243662898359347</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -2860,7 +2636,7 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>15.7798292116364</v>
+        <v>55.229402240727403</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -2868,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>16.498414205206199</v>
+        <v>57.744449718221695</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2876,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>21.562708643599699</v>
+        <v>75.469480252598942</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -2884,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>19.4315290399906</v>
+        <v>68.010351639967098</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -2892,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>17.8575820085724</v>
+        <v>62.501537030003405</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2900,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>17.349880804233202</v>
+        <v>60.724582814816202</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2908,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="B46">
-        <v>18.413389294089701</v>
+        <v>64.446862529313947</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2916,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>17.5524203864349</v>
+        <v>61.433471352522147</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2924,7 +2700,7 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>16.491068428400801</v>
+        <v>57.718739499402801</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2932,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>11.8809347423036</v>
+        <v>41.583271598062602</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2940,7 +2716,7 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>22.827887868431301</v>
+        <v>79.897607539509551</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2948,7 +2724,7 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>21.937398433991302</v>
+        <v>76.780894518969561</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2956,7 +2732,7 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>22.103483087733601</v>
+        <v>77.362190807067606</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2964,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>18.675601167303601</v>
+        <v>65.364604085562604</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2972,7 +2748,7 @@
         <v>13</v>
       </c>
       <c r="B54">
-        <v>20.292638808874599</v>
+        <v>71.024235831061105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2980,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>18.3904306956494</v>
+        <v>64.366507434772899</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2988,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="B56">
-        <v>17.214198338004401</v>
+        <v>60.249694183015407</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2996,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="B57">
-        <v>15.2469326402517</v>
+        <v>53.364264240880949</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3004,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="B58">
-        <v>15.6796497930137</v>
+        <v>54.878774275547954</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3012,7 +2788,7 @@
         <v>13</v>
       </c>
       <c r="B59">
-        <v>18.695502420828301</v>
+        <v>65.43425847289906</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3020,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="B60">
-        <v>19.330186368795001</v>
+        <v>67.655652290782498</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3028,7 +2804,7 @@
         <v>13</v>
       </c>
       <c r="B61">
-        <v>18.7220665508896</v>
+        <v>65.527232928113605</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3036,7 +2812,7 @@
         <v>13</v>
       </c>
       <c r="B62">
-        <v>20.625909879158399</v>
+        <v>72.190684577054398</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -3044,7 +2820,7 @@
         <v>13</v>
       </c>
       <c r="B63">
-        <v>17.279490585052301</v>
+        <v>60.478217047683053</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -3052,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>18.4770382206049</v>
+        <v>64.669633772117152</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3060,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="B65">
-        <v>16.1764917352703</v>
+        <v>56.617721073446049</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -3068,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="B66">
-        <v>24.3409834498176</v>
+        <v>85.193442074361599</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3076,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="B67">
-        <v>23.867369663780199</v>
+        <v>83.535793823230691</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3084,7 +2860,7 @@
         <v>13</v>
       </c>
       <c r="B68">
-        <v>17.593516591026699</v>
+        <v>61.577308068593446</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3092,7 +2868,7 @@
         <v>13</v>
       </c>
       <c r="B69">
-        <v>19.614831681019499</v>
+        <v>68.651910883568249</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -3100,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="B70">
-        <v>19.098208025709202</v>
+        <v>66.843728089982207</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3108,7 +2884,7 @@
         <v>13</v>
       </c>
       <c r="B71">
-        <v>20.375283238696301</v>
+        <v>71.31349133543705</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -3116,7 +2892,7 @@
         <v>13</v>
       </c>
       <c r="B72">
-        <v>18.666288138646301</v>
+        <v>65.332008485262051</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -3124,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="B73">
-        <v>19.4655832097359</v>
+        <v>68.129541234075646</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3132,7 +2908,7 @@
         <v>13</v>
       </c>
       <c r="B74">
-        <v>15.6856511299902</v>
+        <v>54.899778954965697</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3140,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="B75">
-        <v>13.5814053457889</v>
+        <v>47.534918710261152</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -3148,7 +2924,7 @@
         <v>13</v>
       </c>
       <c r="B76">
-        <v>17.536422811149901</v>
+        <v>61.377479839024652</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3156,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="B77">
-        <v>19.209191387730701</v>
+        <v>67.232169857057457</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3164,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="B78">
-        <v>17.002204975409899</v>
+        <v>59.50771741393465</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -3172,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="B79">
-        <v>22.001272257561901</v>
+        <v>77.004452901466649</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3180,7 +2956,7 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>24.768507466872599</v>
+        <v>86.6897761340541</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -3188,7 +2964,7 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>19.567607278983001</v>
+        <v>68.486625476440508</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -3196,7 +2972,7 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>18.530118797764398</v>
+        <v>64.855415792175393</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -3204,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="B83">
-        <v>20.392984628206001</v>
+        <v>71.375446198721008</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -3212,7 +2988,7 @@
         <v>14</v>
       </c>
       <c r="B84">
-        <v>16.968972322024399</v>
+        <v>59.391403127085397</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -3220,7 +2996,7 @@
         <v>14</v>
       </c>
       <c r="B85">
-        <v>18.6689130615541</v>
+        <v>65.341195715439355</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -3228,7 +3004,7 @@
         <v>14</v>
       </c>
       <c r="B86">
-        <v>15.3251921699425</v>
+        <v>53.638172594798753</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -3236,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>17.398890629673701</v>
+        <v>60.896117203857955</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -3244,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="B88">
-        <v>20.772547103897899</v>
+        <v>72.703914863642652</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3252,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>15.815671869490499</v>
+        <v>55.354851543216746</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -3260,7 +3036,7 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>20.528132657064699</v>
+        <v>71.848464299726444</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -3268,7 +3044,7 @@
         <v>14</v>
       </c>
       <c r="B91">
-        <v>19.920563601735999</v>
+        <v>69.721972606075994</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -3276,7 +3052,7 @@
         <v>14</v>
       </c>
       <c r="B92">
-        <v>22.151492063878202</v>
+        <v>77.530222223573702</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -3284,7 +3060,7 @@
         <v>14</v>
       </c>
       <c r="B93">
-        <v>22.205170248148701</v>
+        <v>77.71809586852045</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -3292,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>19.563085083333402</v>
+        <v>68.470797791666911</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -3300,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>19.1821646265029</v>
+        <v>67.13757619276015</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -3308,7 +3084,7 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>14.478879101306701</v>
+        <v>50.676076854573452</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -3316,7 +3092,7 @@
         <v>14</v>
       </c>
       <c r="B97">
-        <v>23.289291874063601</v>
+        <v>81.512521559222606</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -3324,7 +3100,7 @@
         <v>14</v>
       </c>
       <c r="B98">
-        <v>18.329121141218899</v>
+        <v>64.151923994266141</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -3332,7 +3108,7 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>24.676981605073301</v>
+        <v>86.369435617756551</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3340,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>25.839162573875001</v>
+        <v>90.437069008562503</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3348,7 +3124,7 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>21.705435826054401</v>
+        <v>75.969025391190399</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3356,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>19.700628258596598</v>
+        <v>68.952198905088096</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -3364,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>20.512588524959899</v>
+        <v>71.79405983735964</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3372,7 +3148,7 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>25.229312717308801</v>
+        <v>88.302594510580803</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -3380,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="B105">
-        <v>18.990630826392898</v>
+        <v>66.467207892375143</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3388,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="B106">
-        <v>21.573041589353402</v>
+        <v>75.505645562736902</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3396,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>25.517470792989499</v>
+        <v>89.31114777546324</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3404,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B108">
-        <v>17.077422950848899</v>
+        <v>59.770980327971145</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3412,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>23.5482084317123</v>
+        <v>82.418729510993046</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3420,7 +3196,7 @@
         <v>14</v>
       </c>
       <c r="B110">
-        <v>21.514454374281701</v>
+        <v>75.300590309985949</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -3428,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>29.5098475404344</v>
+        <v>103.2844663915204</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3436,7 +3212,7 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>20.842264919508601</v>
+        <v>72.9479272182801</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -3444,7 +3220,7 @@
         <v>14</v>
       </c>
       <c r="B113">
-        <v>20.968250435283601</v>
+        <v>73.388876523492598</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -3452,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>23.4195760023077</v>
+        <v>81.968516008076946</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3460,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>23.052826622478801</v>
+        <v>80.684893178675807</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -3468,7 +3244,7 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>20.3915511981767</v>
+        <v>71.370429193618449</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -3476,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="B117">
-        <v>19.705258975939099</v>
+        <v>68.968406415786845</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -3484,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>23.8715931021088</v>
+        <v>83.550575857380807</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -3492,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="B119">
-        <v>17.760322769159</v>
+        <v>62.161129692056498</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -3500,7 +3276,7 @@
         <v>15</v>
       </c>
       <c r="B120">
-        <v>17.945215071395001</v>
+        <v>62.808252749882506</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -3508,7 +3284,7 @@
         <v>15</v>
       </c>
       <c r="B121">
-        <v>16.014357413513899</v>
+        <v>56.05025094729865</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -3516,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="B122">
-        <v>13.859467332696401</v>
+        <v>48.508135664437404</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -3524,7 +3300,7 @@
         <v>15</v>
       </c>
       <c r="B123">
-        <v>13.3125899879581</v>
+        <v>46.594064957853348</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -3532,7 +3308,7 @@
         <v>15</v>
       </c>
       <c r="B124">
-        <v>17.6558519064519</v>
+        <v>61.795481672581651</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -3540,7 +3316,7 @@
         <v>15</v>
       </c>
       <c r="B125">
-        <v>16.3702844547593</v>
+        <v>57.295995591657551</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -3548,7 +3324,7 @@
         <v>15</v>
       </c>
       <c r="B126">
-        <v>15.905644927794</v>
+        <v>55.669757247279001</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3556,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="B127">
-        <v>17.740604723608701</v>
+        <v>62.092116532630456</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -3564,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="B128">
-        <v>16.081494410840602</v>
+        <v>56.285230437942104</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -3572,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="B129">
-        <v>20.362652762934601</v>
+        <v>71.269284670271105</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -3580,7 +3356,7 @@
         <v>15</v>
       </c>
       <c r="B130">
-        <v>14.9530821178086</v>
+        <v>52.335787412330099</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -3588,7 +3364,7 @@
         <v>15</v>
       </c>
       <c r="B131">
-        <v>17.8171629311787</v>
+        <v>62.36007025912545</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3596,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <v>14.456218378449501</v>
+        <v>50.59676432457325</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -3604,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="B133">
-        <v>15.977933100576101</v>
+        <v>55.922765852016354</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -3612,7 +3388,7 @@
         <v>15</v>
       </c>
       <c r="B134">
-        <v>20.043645242078899</v>
+        <v>70.152758347276148</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3620,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="B135">
-        <v>13.4732060771295</v>
+        <v>47.156221269953249</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -3628,7 +3404,7 @@
         <v>15</v>
       </c>
       <c r="B136">
-        <v>14.5162956937366</v>
+        <v>50.807034928078103</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -3636,7 +3412,7 @@
         <v>15</v>
       </c>
       <c r="B137">
-        <v>12.7947664417265</v>
+        <v>44.781682546042752</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -3644,7 +3420,7 @@
         <v>15</v>
       </c>
       <c r="B138">
-        <v>19.084832750905701</v>
+        <v>66.796914628169958</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3652,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="B139">
-        <v>18.7249851455609</v>
+        <v>65.537448009463148</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -3660,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="B140">
-        <v>20.088405291605302</v>
+        <v>70.30941852061855</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -3668,7 +3444,7 @@
         <v>15</v>
       </c>
       <c r="B141">
-        <v>18.782536546341099</v>
+        <v>65.738877912193843</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -3676,7 +3452,7 @@
         <v>15</v>
       </c>
       <c r="B142">
-        <v>17.4668000988496</v>
+        <v>61.133800345973597</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -3684,7 +3460,7 @@
         <v>15</v>
       </c>
       <c r="B143">
-        <v>18.808110559270801</v>
+        <v>65.828386957447805</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -3692,7 +3468,7 @@
         <v>15</v>
       </c>
       <c r="B144">
-        <v>21.0990296793764</v>
+        <v>73.846603877817401</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -3700,7 +3476,7 @@
         <v>15</v>
       </c>
       <c r="B145">
-        <v>15.3542968312151</v>
+        <v>53.740038909252853</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -3708,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="B146">
-        <v>14.8506142535342</v>
+        <v>51.977149887369698</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -3716,7 +3492,7 @@
         <v>15</v>
       </c>
       <c r="B147">
-        <v>19.025982558995199</v>
+        <v>66.5909389564832</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3724,7 +3500,7 @@
         <v>15</v>
       </c>
       <c r="B148">
-        <v>17.246378205068101</v>
+        <v>60.362323717738356</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3513,7 @@
   <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3755,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>34.647905370679403</v>
+        <v>169.9437161120382</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3763,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>42.868682362254198</v>
+        <v>194.60604708676257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3771,7 +3547,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>50.379333977803199</v>
+        <v>217.13800193340961</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3779,7 +3555,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>37.365831226154498</v>
+        <v>178.09749367846348</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3787,7 +3563,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>43.567733342842502</v>
+        <v>196.7032000285275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3795,7 +3571,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>23.789320009986302</v>
+        <v>137.36796002995891</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3803,7 +3579,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>33.829302337318701</v>
+        <v>167.48790701195611</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3811,7 +3587,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>25.114817419152001</v>
+        <v>141.344452257456</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3819,7 +3595,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>37.708999462679998</v>
+        <v>179.12699838803999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3827,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>31.252303182620999</v>
+        <v>159.75690954786299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3835,7 +3611,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>39.480797978000297</v>
+        <v>184.4423939340009</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3843,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>31.782697345027199</v>
+        <v>161.34809203508161</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3851,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>37.9327866105046</v>
+        <v>179.79835983151381</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3859,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>29.6146887809223</v>
+        <v>154.84406634276689</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3867,7 +3643,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>39.796465787269703</v>
+        <v>185.3893973618091</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3875,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>31.957718778678299</v>
+        <v>161.8731563360349</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3883,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>26.132270854418302</v>
+        <v>144.39681256325491</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3891,7 +3667,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>35.005833602058097</v>
+        <v>171.0175008061743</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3899,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>26.271366976553399</v>
+        <v>144.81410092966019</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3907,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>42.456885293511299</v>
+        <v>193.37065588053392</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3915,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.403063850199203</v>
+        <v>163.20919155059761</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3923,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>32.082013416138899</v>
+        <v>162.2460402484167</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3931,7 +3707,7 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>41.476254845245698</v>
+        <v>190.42876453573709</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3939,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>25.828283592208699</v>
+        <v>143.4848507766261</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3947,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>26.855336554684101</v>
+        <v>146.5660096640523</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3955,7 +3731,7 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>32.718853570389797</v>
+        <v>164.15656071116939</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3963,7 +3739,7 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>22.508309376372999</v>
+        <v>133.52492812911899</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3971,7 +3747,7 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>35.161601774628899</v>
+        <v>171.48480532388669</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3979,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>33.4453753246258</v>
+        <v>166.33612597387742</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3987,7 +3763,7 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>43.927669176453001</v>
+        <v>197.78300752935903</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3995,7 +3771,7 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>32.3335206274756</v>
+        <v>163.00056188242681</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4003,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>38.209884275567703</v>
+        <v>180.62965282670311</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4011,7 +3787,7 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>41.617800227888999</v>
+        <v>190.85340068366699</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4019,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>36.674116320580303</v>
+        <v>176.0223489617409</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4027,7 +3803,7 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <v>31.1082290544153</v>
+        <v>159.32468716324593</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -4035,7 +3811,7 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>30.345170181253199</v>
+        <v>157.03551054375959</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4043,7 +3819,7 @@
         <v>20</v>
       </c>
       <c r="B38">
-        <v>41.722824327200001</v>
+        <v>191.16847298160002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -4051,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="B39">
-        <v>35.003829242157501</v>
+        <v>171.0114877264725</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4059,7 +3835,7 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <v>35.148270374953597</v>
+        <v>171.44481112486079</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4067,7 +3843,7 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>34.027679956861498</v>
+        <v>168.08303987058449</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -4075,7 +3851,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>33.326369377668598</v>
+        <v>165.97910813300581</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -4083,7 +3859,7 @@
         <v>20</v>
       </c>
       <c r="B43">
-        <v>42.272934842633397</v>
+        <v>192.81880452790017</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -4091,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="B44">
-        <v>29.208359629632401</v>
+        <v>153.62507888889718</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -4099,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="B45">
-        <v>24.546615198274701</v>
+        <v>139.6398455948241</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -4107,7 +3883,7 @@
         <v>20</v>
       </c>
       <c r="B46">
-        <v>33.167669233712402</v>
+        <v>165.50300770113722</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -4115,7 +3891,7 @@
         <v>20</v>
       </c>
       <c r="B47">
-        <v>25.9148132995794</v>
+        <v>143.74443989873819</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4123,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="B48">
-        <v>31.591374785456701</v>
+        <v>160.77412435637009</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -4131,7 +3907,7 @@
         <v>20</v>
       </c>
       <c r="B49">
-        <v>41.738410174247399</v>
+        <v>191.21523052274219</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -4139,7 +3915,7 @@
         <v>20</v>
       </c>
       <c r="B50">
-        <v>38.047745101754202</v>
+        <v>180.14323530526261</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -4147,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="B51">
-        <v>38.582300466472397</v>
+        <v>181.7469013994172</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4155,7 +3931,7 @@
         <v>20</v>
       </c>
       <c r="B52">
-        <v>28.8530812236238</v>
+        <v>152.55924367087141</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -4163,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="B53">
-        <v>34.194139103827702</v>
+        <v>168.58241731148311</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4171,7 +3947,7 @@
         <v>20</v>
       </c>
       <c r="B54">
-        <v>41.658789494090897</v>
+        <v>190.97636848227268</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4179,7 +3955,7 @@
         <v>20</v>
       </c>
       <c r="B55">
-        <v>24.1440381852325</v>
+        <v>138.43211455569752</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4187,7 +3963,7 @@
         <v>20</v>
       </c>
       <c r="B56">
-        <v>34.608701091368097</v>
+        <v>169.8261032741043</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4195,7 +3971,7 @@
         <v>20</v>
       </c>
       <c r="B57">
-        <v>36.249841906629598</v>
+        <v>174.74952571988879</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4203,7 +3979,7 @@
         <v>20</v>
       </c>
       <c r="B58">
-        <v>33.496451512941398</v>
+        <v>166.48935453882419</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4211,7 +3987,7 @@
         <v>20</v>
       </c>
       <c r="B59">
-        <v>30.5822568182219</v>
+        <v>157.74677045466569</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4219,7 +3995,7 @@
         <v>20</v>
       </c>
       <c r="B60">
-        <v>31.189742231131799</v>
+        <v>159.56922669339542</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4227,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="B61">
-        <v>40.731339774460999</v>
+        <v>188.194019323383</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4235,7 +4011,7 @@
         <v>20</v>
       </c>
       <c r="B62">
-        <v>39.002899046331201</v>
+        <v>183.0086971389936</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4243,7 +4019,7 @@
         <v>20</v>
       </c>
       <c r="B63">
-        <v>32.017180810784502</v>
+        <v>162.0515424323535</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4251,7 +4027,7 @@
         <v>21</v>
       </c>
       <c r="B64">
-        <v>32.966028544226504</v>
+        <v>164.89808563267951</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4259,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="B65">
-        <v>34.001219216046898</v>
+        <v>168.00365764814069</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4267,7 +4043,7 @@
         <v>21</v>
       </c>
       <c r="B66">
-        <v>48.420108460332202</v>
+        <v>211.26032538099662</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4275,7 +4051,7 @@
         <v>21</v>
       </c>
       <c r="B67">
-        <v>34.054268635592898</v>
+        <v>168.16280590677869</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4283,7 +4059,7 @@
         <v>21</v>
       </c>
       <c r="B68">
-        <v>25.599802246454299</v>
+        <v>142.79940673936289</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4291,7 +4067,7 @@
         <v>21</v>
       </c>
       <c r="B69">
-        <v>37.672569115650397</v>
+        <v>179.0177073469512</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4299,7 +4075,7 @@
         <v>21</v>
       </c>
       <c r="B70">
-        <v>31.453286078070999</v>
+        <v>160.35985823421299</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4307,7 +4083,7 @@
         <v>21</v>
       </c>
       <c r="B71">
-        <v>29.424408130071299</v>
+        <v>154.2732243902139</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4315,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="B72">
-        <v>35.737370847338703</v>
+        <v>173.21211254201611</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4323,7 +4099,7 @@
         <v>21</v>
       </c>
       <c r="B73">
-        <v>37.342936966901398</v>
+        <v>178.0288109007042</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4331,7 +4107,7 @@
         <v>21</v>
       </c>
       <c r="B74">
-        <v>41.072733347115197</v>
+        <v>189.2182000413456</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4339,7 +4115,7 @@
         <v>21</v>
       </c>
       <c r="B75">
-        <v>40.446613267744702</v>
+        <v>187.3398398032341</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4347,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="B76">
-        <v>31.618696676778999</v>
+        <v>160.85609003033699</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4355,7 +4131,7 @@
         <v>21</v>
       </c>
       <c r="B77">
-        <v>30.9299284412491</v>
+        <v>158.78978532374731</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4363,7 +4139,7 @@
         <v>21</v>
       </c>
       <c r="B78">
-        <v>33.889242021942898</v>
+        <v>167.6677260658287</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4371,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="B79">
-        <v>24.297239696755099</v>
+        <v>138.8917190902653</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4379,7 +4155,7 @@
         <v>21</v>
       </c>
       <c r="B80">
-        <v>34.052676234872997</v>
+        <v>168.158028704619</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4387,7 +4163,7 @@
         <v>21</v>
       </c>
       <c r="B81">
-        <v>38.170410578489999</v>
+        <v>180.51123173547001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4395,7 +4171,7 @@
         <v>21</v>
       </c>
       <c r="B82">
-        <v>37.348288894832997</v>
+        <v>178.044866684499</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4403,7 +4179,7 @@
         <v>21</v>
       </c>
       <c r="B83">
-        <v>43.817345251959303</v>
+        <v>197.45203575587789</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4411,7 +4187,7 @@
         <v>21</v>
       </c>
       <c r="B84">
-        <v>38.397801845213898</v>
+        <v>181.19340553564169</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4419,7 +4195,7 @@
         <v>21</v>
       </c>
       <c r="B85">
-        <v>25.124162056046501</v>
+        <v>141.37248616813952</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4427,7 +4203,7 @@
         <v>21</v>
       </c>
       <c r="B86">
-        <v>46.053872546145897</v>
+        <v>204.16161763843769</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4435,7 +4211,7 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>23.231321674744201</v>
+        <v>135.6939650242326</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4443,7 +4219,7 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>35.2096235222781</v>
+        <v>171.62887056683431</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4451,7 +4227,7 @@
         <v>21</v>
       </c>
       <c r="B89">
-        <v>36.586842859478303</v>
+        <v>175.7605285784349</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4459,7 +4235,7 @@
         <v>21</v>
       </c>
       <c r="B90">
-        <v>40.219040983920998</v>
+        <v>186.657122951763</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4467,7 +4243,7 @@
         <v>21</v>
       </c>
       <c r="B91">
-        <v>28.750243843974101</v>
+        <v>152.25073153192233</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4475,7 +4251,7 @@
         <v>21</v>
       </c>
       <c r="B92">
-        <v>33.621204966369802</v>
+        <v>166.86361489910939</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4483,7 +4259,7 @@
         <v>21</v>
       </c>
       <c r="B93">
-        <v>37.9322619567724</v>
+        <v>179.79678587031719</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4491,7 +4267,7 @@
         <v>21</v>
       </c>
       <c r="B94">
-        <v>31.2554539229189</v>
+        <v>159.76636176875672</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4499,7 +4275,7 @@
         <v>21</v>
       </c>
       <c r="B95">
-        <v>34.696213167977803</v>
+        <v>170.08863950393339</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4507,7 +4283,7 @@
         <v>21</v>
       </c>
       <c r="B96">
-        <v>45.412867309662602</v>
+        <v>202.2386019289878</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4515,7 +4291,7 @@
         <v>21</v>
       </c>
       <c r="B97">
-        <v>37.856226818376904</v>
+        <v>179.5686804551307</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4523,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="B98">
-        <v>31.068621517534101</v>
+        <v>159.20586455260229</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4531,7 +4307,7 @@
         <v>21</v>
       </c>
       <c r="B99">
-        <v>33.3710085595458</v>
+        <v>166.1130256786374</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4539,7 +4315,7 @@
         <v>21</v>
       </c>
       <c r="B100">
-        <v>38.269650900733701</v>
+        <v>180.80895270220111</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4547,7 +4323,7 @@
         <v>21</v>
       </c>
       <c r="B101">
-        <v>39.395750719799203</v>
+        <v>184.18725215939762</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4555,7 +4331,7 @@
         <v>21</v>
       </c>
       <c r="B102">
-        <v>36.098235550653499</v>
+        <v>174.2947066519605</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4563,7 +4339,7 @@
         <v>21</v>
       </c>
       <c r="B103">
-        <v>40.583360093583202</v>
+        <v>187.75008028074961</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4571,7 +4347,7 @@
         <v>21</v>
       </c>
       <c r="B104">
-        <v>39.435749796771503</v>
+        <v>184.3072493903145</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4579,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="B105">
-        <v>27.851395493622899</v>
+        <v>149.55418648086871</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4587,7 +4363,7 @@
         <v>21</v>
       </c>
       <c r="B106">
-        <v>37.238082513907798</v>
+        <v>177.71424754172341</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4595,7 +4371,7 @@
         <v>21</v>
       </c>
       <c r="B107">
-        <v>33.367095463826203</v>
+        <v>166.1012863914786</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4603,7 +4379,7 @@
         <v>21</v>
       </c>
       <c r="B108">
-        <v>36.669903376822703</v>
+        <v>176.00971013046811</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4611,7 +4387,7 @@
         <v>21</v>
       </c>
       <c r="B109">
-        <v>40.288000974066698</v>
+        <v>186.86400292220009</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4619,7 +4395,7 @@
         <v>21</v>
       </c>
       <c r="B110">
-        <v>35.215152635586101</v>
+        <v>171.64545790675831</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4627,7 +4403,7 @@
         <v>21</v>
       </c>
       <c r="B111">
-        <v>36.085242087377999</v>
+        <v>174.255726262134</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4635,7 +4411,7 @@
         <v>21</v>
       </c>
       <c r="B112">
-        <v>26.409866480556399</v>
+        <v>145.22959944166922</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4643,7 +4419,7 @@
         <v>21</v>
       </c>
       <c r="B113">
-        <v>33.439872003623201</v>
+        <v>166.31961601086959</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4651,7 +4427,7 @@
         <v>21</v>
       </c>
       <c r="B114">
-        <v>44.8325130021245</v>
+        <v>200.4975390063735</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4659,7 +4435,7 @@
         <v>21</v>
       </c>
       <c r="B115">
-        <v>30.265743340411301</v>
+        <v>156.79723002123393</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4667,7 +4443,7 @@
         <v>21</v>
       </c>
       <c r="B116">
-        <v>34.277311404262399</v>
+        <v>168.83193421278719</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4675,7 +4451,7 @@
         <v>21</v>
       </c>
       <c r="B117">
-        <v>31.391567217282301</v>
+        <v>160.1747016518469</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4683,7 +4459,7 @@
         <v>21</v>
       </c>
       <c r="B118">
-        <v>38.117688453373397</v>
+        <v>180.35306536012018</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4691,7 +4467,7 @@
         <v>21</v>
       </c>
       <c r="B119">
-        <v>46.083056777584702</v>
+        <v>204.24917033275409</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4699,7 +4475,7 @@
         <v>21</v>
       </c>
       <c r="B120">
-        <v>34.3208108019425</v>
+        <v>168.96243240582749</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4707,7 +4483,7 @@
         <v>21</v>
       </c>
       <c r="B121">
-        <v>37.898713661547198</v>
+        <v>179.6961409846416</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4715,7 +4491,7 @@
         <v>21</v>
       </c>
       <c r="B122">
-        <v>28.5234174985527</v>
+        <v>151.57025249565811</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4723,7 +4499,7 @@
         <v>21</v>
       </c>
       <c r="B123">
-        <v>29.3219538556516</v>
+        <v>153.9658615669548</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4731,7 +4507,7 @@
         <v>21</v>
       </c>
       <c r="B124">
-        <v>30.622367825426</v>
+        <v>157.86710347627798</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4739,7 +4515,7 @@
         <v>21</v>
       </c>
       <c r="B125">
-        <v>29.6885785203255</v>
+        <v>155.06573556097649</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4747,7 +4523,7 @@
         <v>21</v>
       </c>
       <c r="B126">
-        <v>38.990052147285297</v>
+        <v>182.97015644185589</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4755,7 +4531,7 @@
         <v>21</v>
       </c>
       <c r="B127">
-        <v>35.036091616320199</v>
+        <v>171.1082748489606</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4763,7 +4539,7 @@
         <v>22</v>
       </c>
       <c r="B128">
-        <v>30.913573834943801</v>
+        <v>158.74072150483141</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4771,7 +4547,7 @@
         <v>22</v>
       </c>
       <c r="B129">
-        <v>28.898454868025301</v>
+        <v>152.69536460407591</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4779,7 +4555,7 @@
         <v>22</v>
       </c>
       <c r="B130">
-        <v>30.199298357494399</v>
+        <v>156.5978950724832</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4787,7 +4563,7 @@
         <v>22</v>
       </c>
       <c r="B131">
-        <v>31.394278149313401</v>
+        <v>160.18283444794019</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4795,7 +4571,7 @@
         <v>22</v>
       </c>
       <c r="B132">
-        <v>37.255409954972002</v>
+        <v>177.766229864916</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4803,7 +4579,7 @@
         <v>22</v>
       </c>
       <c r="B133">
-        <v>32.835993640353998</v>
+        <v>164.507980921062</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4811,7 +4587,7 @@
         <v>22</v>
       </c>
       <c r="B134">
-        <v>30.578813122928299</v>
+        <v>157.73643936878489</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4819,7 +4595,7 @@
         <v>22</v>
       </c>
       <c r="B135">
-        <v>30.4748267948715</v>
+        <v>157.42448038461453</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4827,7 +4603,7 @@
         <v>22</v>
       </c>
       <c r="B136">
-        <v>42.333318845699999</v>
+        <v>192.99995653710002</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4835,7 +4611,7 @@
         <v>22</v>
       </c>
       <c r="B137">
-        <v>42.140776815469302</v>
+        <v>192.42233044640793</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4843,7 +4619,7 @@
         <v>22</v>
       </c>
       <c r="B138">
-        <v>41.544217858478298</v>
+        <v>190.63265357543489</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4851,7 +4627,7 @@
         <v>22</v>
       </c>
       <c r="B139">
-        <v>27.1601046167597</v>
+        <v>147.48031385027909</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4859,7 +4635,7 @@
         <v>22</v>
       </c>
       <c r="B140">
-        <v>33.915841479000498</v>
+        <v>167.74752443700149</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4867,7 +4643,7 @@
         <v>22</v>
       </c>
       <c r="B141">
-        <v>38.720252305807598</v>
+        <v>182.16075691742279</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4875,7 +4651,7 @@
         <v>22</v>
       </c>
       <c r="B142">
-        <v>33.779653327661698</v>
+        <v>167.3389599829851</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4883,7 +4659,7 @@
         <v>22</v>
       </c>
       <c r="B143">
-        <v>35.777407451700498</v>
+        <v>173.33222235510149</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4891,7 +4667,7 @@
         <v>22</v>
       </c>
       <c r="B144">
-        <v>34.998318515661197</v>
+        <v>170.99495554698359</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4899,7 +4675,7 @@
         <v>22</v>
       </c>
       <c r="B145">
-        <v>21.485684302156599</v>
+        <v>130.45705290646981</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4907,7 +4683,7 @@
         <v>22</v>
       </c>
       <c r="B146">
-        <v>36.105055122263799</v>
+        <v>174.3151653667914</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4915,7 +4691,7 @@
         <v>22</v>
       </c>
       <c r="B147">
-        <v>40.923470187114098</v>
+        <v>188.77041056134229</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4923,7 +4699,7 @@
         <v>22</v>
       </c>
       <c r="B148">
-        <v>30.716124045089899</v>
+        <v>158.14837213526971</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4931,7 +4707,7 @@
         <v>22</v>
       </c>
       <c r="B149">
-        <v>44.515163461913502</v>
+        <v>199.54549038574049</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4939,7 +4715,7 @@
         <v>22</v>
       </c>
       <c r="B150">
-        <v>33.549815746349601</v>
+        <v>166.64944723904881</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4947,7 +4723,7 @@
         <v>22</v>
       </c>
       <c r="B151">
-        <v>38.686184929645101</v>
+        <v>182.05855478893531</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4955,7 +4731,7 @@
         <v>22</v>
       </c>
       <c r="B152">
-        <v>32.737276028302702</v>
+        <v>164.21182808490812</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4963,7 +4739,7 @@
         <v>22</v>
       </c>
       <c r="B153">
-        <v>34.887427538328097</v>
+        <v>170.66228261498429</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4971,7 +4747,7 @@
         <v>22</v>
       </c>
       <c r="B154">
-        <v>34.190715943828302</v>
+        <v>168.5721478314849</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4979,7 +4755,7 @@
         <v>22</v>
       </c>
       <c r="B155">
-        <v>37.965668865904803</v>
+        <v>179.89700659771441</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4987,7 +4763,7 @@
         <v>22</v>
       </c>
       <c r="B156">
-        <v>28.295469777699999</v>
+        <v>150.8864093331</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4995,7 +4771,7 @@
         <v>22</v>
       </c>
       <c r="B157">
-        <v>26.969763437656201</v>
+        <v>146.90929031296861</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -5003,7 +4779,7 @@
         <v>22</v>
       </c>
       <c r="B158">
-        <v>40.206470920482303</v>
+        <v>186.61941276144691</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -5011,7 +4787,7 @@
         <v>22</v>
       </c>
       <c r="B159">
-        <v>42.922500880990803</v>
+        <v>194.76750264297243</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -5019,7 +4795,7 @@
         <v>22</v>
       </c>
       <c r="B160">
-        <v>29.6575354445615</v>
+        <v>154.9726063336845</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -5027,7 +4803,7 @@
         <v>22</v>
       </c>
       <c r="B161">
-        <v>23.089009261706501</v>
+        <v>135.2670277851195</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -5035,7 +4811,7 @@
         <v>22</v>
       </c>
       <c r="B162">
-        <v>37.415738902529597</v>
+        <v>178.24721670758879</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -5043,7 +4819,7 @@
         <v>22</v>
       </c>
       <c r="B163">
-        <v>34.893776035957799</v>
+        <v>170.68132810787341</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -5051,7 +4827,7 @@
         <v>22</v>
       </c>
       <c r="B164">
-        <v>25.679993334418</v>
+        <v>143.03998000325402</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -5059,7 +4835,7 @@
         <v>22</v>
       </c>
       <c r="B165">
-        <v>31.533036666560299</v>
+        <v>160.59910999968091</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -5067,7 +4843,7 @@
         <v>22</v>
       </c>
       <c r="B166">
-        <v>27.470126976144101</v>
+        <v>148.41038092843229</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -5075,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="B167">
-        <v>35.605256993685501</v>
+        <v>172.81577098105652</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -5083,7 +4859,7 @@
         <v>22</v>
       </c>
       <c r="B168">
-        <v>40.403863235170299</v>
+        <v>187.2115897055109</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -5091,7 +4867,7 @@
         <v>22</v>
       </c>
       <c r="B169">
-        <v>27.188575348679201</v>
+        <v>147.56572604603761</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -5099,7 +4875,7 @@
         <v>22</v>
       </c>
       <c r="B170">
-        <v>40.8498168026331</v>
+        <v>188.54945040789931</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -5107,7 +4883,7 @@
         <v>22</v>
       </c>
       <c r="B171">
-        <v>31.274129447643599</v>
+        <v>159.82238834293082</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -5115,7 +4891,7 @@
         <v>22</v>
       </c>
       <c r="B172">
-        <v>30.583067982888199</v>
+        <v>157.74920394866459</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -5123,7 +4899,7 @@
         <v>22</v>
       </c>
       <c r="B173">
-        <v>41.248660323394603</v>
+        <v>189.74598097018381</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -5131,7 +4907,7 @@
         <v>22</v>
       </c>
       <c r="B174">
-        <v>32.336089287940702</v>
+        <v>163.00826786382211</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -5139,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="B175">
-        <v>18.484175729731</v>
+        <v>121.45252718919301</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -5147,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="B176">
-        <v>32.696059182980903</v>
+        <v>164.08817754894272</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -5155,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="B177">
-        <v>36.843529220087802</v>
+        <v>176.53058766026339</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -5163,7 +4939,7 @@
         <v>22</v>
       </c>
       <c r="B178">
-        <v>29.435601210381499</v>
+        <v>154.3068036311445</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -5171,7 +4947,7 @@
         <v>22</v>
       </c>
       <c r="B179">
-        <v>24.982234601715099</v>
+        <v>140.94670380514529</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -5179,7 +4955,7 @@
         <v>22</v>
       </c>
       <c r="B180">
-        <v>34.880126563744597</v>
+        <v>170.64037969123379</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -5187,7 +4963,7 @@
         <v>22</v>
       </c>
       <c r="B181">
-        <v>33.250034162182999</v>
+        <v>165.750102486549</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5195,7 +4971,7 @@
         <v>22</v>
       </c>
       <c r="B182">
-        <v>27.0131434938226</v>
+        <v>147.03943048146778</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5203,7 +4979,7 @@
         <v>22</v>
       </c>
       <c r="B183">
-        <v>28.748287060383799</v>
+        <v>152.24486118115141</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5211,7 +4987,7 @@
         <v>22</v>
       </c>
       <c r="B184">
-        <v>26.7283195830612</v>
+        <v>146.18495874918361</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5219,7 +4995,7 @@
         <v>22</v>
       </c>
       <c r="B185">
-        <v>45.671661024804997</v>
+        <v>203.01498307441497</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5227,7 +5003,7 @@
         <v>22</v>
       </c>
       <c r="B186">
-        <v>38.904350214779697</v>
+        <v>182.71305064433909</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5235,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="B187">
-        <v>33.615356997759001</v>
+        <v>166.84607099327701</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5243,7 +5019,7 @@
         <v>22</v>
       </c>
       <c r="B188">
-        <v>24.298036079614501</v>
+        <v>138.8941082388435</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5251,7 +5027,7 @@
         <v>22</v>
       </c>
       <c r="B189">
-        <v>27.656810663588999</v>
+        <v>148.970431990767</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5259,7 +5035,7 @@
         <v>22</v>
       </c>
       <c r="B190">
-        <v>40.512339107977098</v>
+        <v>187.53701732393131</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5267,7 +5043,7 @@
         <v>22</v>
       </c>
       <c r="B191">
-        <v>35.187673619087697</v>
+        <v>171.5630208572631</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -5275,7 +5051,7 @@
         <v>22</v>
       </c>
       <c r="B192">
-        <v>39.142609975635096</v>
+        <v>183.4278299269053</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5283,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="B193">
-        <v>20.714753136731002</v>
+        <v>128.144259410193</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5291,7 +5067,7 @@
         <v>23</v>
       </c>
       <c r="B194">
-        <v>41.010485499772798</v>
+        <v>189.03145649931838</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5299,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="B195">
-        <v>50.891538305081802</v>
+        <v>218.67461491524543</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5307,7 +5083,7 @@
         <v>23</v>
       </c>
       <c r="B196">
-        <v>29.839729293142401</v>
+        <v>155.51918787942719</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5315,7 +5091,7 @@
         <v>23</v>
       </c>
       <c r="B197">
-        <v>31.1870114337949</v>
+        <v>159.56103430138469</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5323,7 +5099,7 @@
         <v>23</v>
       </c>
       <c r="B198">
-        <v>28.463840555623399</v>
+        <v>151.3915216668702</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5331,7 +5107,7 @@
         <v>23</v>
       </c>
       <c r="B199">
-        <v>29.694231244227598</v>
+        <v>155.0826937326828</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5339,7 +5115,7 @@
         <v>23</v>
       </c>
       <c r="B200">
-        <v>24.552216702538999</v>
+        <v>139.656650107617</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5347,7 +5123,7 @@
         <v>23</v>
       </c>
       <c r="B201">
-        <v>37.159791421126599</v>
+        <v>177.47937426337978</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5355,7 +5131,7 @@
         <v>23</v>
       </c>
       <c r="B202">
-        <v>36.587656821984503</v>
+        <v>175.76297046595352</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5363,7 +5139,7 @@
         <v>23</v>
       </c>
       <c r="B203">
-        <v>30.970481317716501</v>
+        <v>158.9114439531495</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5371,7 +5147,7 @@
         <v>23</v>
       </c>
       <c r="B204">
-        <v>35.131112405933401</v>
+        <v>171.39333721780019</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5379,7 +5155,7 @@
         <v>23</v>
       </c>
       <c r="B205">
-        <v>39.176081402323497</v>
+        <v>183.5282442069705</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5387,7 +5163,7 @@
         <v>23</v>
       </c>
       <c r="B206">
-        <v>47.563773039402903</v>
+        <v>208.6913191182087</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5395,7 +5171,7 @@
         <v>23</v>
       </c>
       <c r="B207">
-        <v>43.407407052532399</v>
+        <v>196.22222115759718</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5403,7 +5179,7 @@
         <v>23</v>
       </c>
       <c r="B208">
-        <v>34.3414371712988</v>
+        <v>169.02431151389641</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5411,7 +5187,7 @@
         <v>23</v>
       </c>
       <c r="B209">
-        <v>27.051168360475</v>
+        <v>147.15350508142501</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5419,7 +5195,7 @@
         <v>23</v>
       </c>
       <c r="B210">
-        <v>39.118096959961001</v>
+        <v>183.354290879883</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5427,7 +5203,7 @@
         <v>23</v>
       </c>
       <c r="B211">
-        <v>36.078390065440097</v>
+        <v>174.2351701963203</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5435,7 +5211,7 @@
         <v>23</v>
       </c>
       <c r="B212">
-        <v>28.058020686310599</v>
+        <v>150.17406205893178</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5443,7 +5219,7 @@
         <v>23</v>
       </c>
       <c r="B213">
-        <v>30.193197006930799</v>
+        <v>156.57959102079241</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5451,7 +5227,7 @@
         <v>23</v>
       </c>
       <c r="B214">
-        <v>29.969898571906398</v>
+        <v>155.90969571571918</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5459,7 +5235,7 @@
         <v>23</v>
       </c>
       <c r="B215">
-        <v>41.9585974838553</v>
+        <v>191.8757924515659</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5467,7 +5243,7 @@
         <v>23</v>
       </c>
       <c r="B216">
-        <v>46.9522048027479</v>
+        <v>206.8566144082437</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5475,7 +5251,7 @@
         <v>23</v>
       </c>
       <c r="B217">
-        <v>30.3188484202851</v>
+        <v>156.95654526085531</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5483,7 +5259,7 @@
         <v>23</v>
       </c>
       <c r="B218">
-        <v>35.748101745352798</v>
+        <v>173.24430523605838</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5491,7 +5267,7 @@
         <v>23</v>
       </c>
       <c r="B219">
-        <v>31.995418716634401</v>
+        <v>161.98625614990323</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5499,7 +5275,7 @@
         <v>23</v>
       </c>
       <c r="B220">
-        <v>30.207755342585699</v>
+        <v>156.6232660277571</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5507,7 +5283,7 @@
         <v>23</v>
       </c>
       <c r="B221">
-        <v>40.605214525459502</v>
+        <v>187.81564357637851</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5515,7 +5291,7 @@
         <v>23</v>
       </c>
       <c r="B222">
-        <v>38.2157475987269</v>
+        <v>180.64724279618071</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5523,7 +5299,7 @@
         <v>23</v>
       </c>
       <c r="B223">
-        <v>46.404194086987502</v>
+        <v>205.21258226096251</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5531,7 +5307,7 @@
         <v>23</v>
       </c>
       <c r="B224">
-        <v>27.2089392014175</v>
+        <v>147.62681760425249</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5539,7 +5315,7 @@
         <v>23</v>
       </c>
       <c r="B225">
-        <v>43.166574272623201</v>
+        <v>195.49972281786958</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5547,7 +5323,7 @@
         <v>23</v>
       </c>
       <c r="B226">
-        <v>40.744553258717801</v>
+        <v>188.23365977615339</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5555,7 +5331,7 @@
         <v>23</v>
       </c>
       <c r="B227">
-        <v>25.596531568436301</v>
+        <v>142.7895947053089</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5563,7 +5339,7 @@
         <v>23</v>
       </c>
       <c r="B228">
-        <v>45.504595007950897</v>
+        <v>202.51378502385268</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5571,7 +5347,7 @@
         <v>23</v>
       </c>
       <c r="B229">
-        <v>38.514241674444897</v>
+        <v>181.5427250233347</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5579,7 +5355,7 @@
         <v>23</v>
       </c>
       <c r="B230">
-        <v>29.5395852643179</v>
+        <v>154.61875579295369</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5587,7 +5363,7 @@
         <v>23</v>
       </c>
       <c r="B231">
-        <v>35.538566099378698</v>
+        <v>172.6156982981361</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5595,7 +5371,7 @@
         <v>23</v>
       </c>
       <c r="B232">
-        <v>34.957482094307998</v>
+        <v>170.87244628292399</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5603,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="B233">
-        <v>38.806772139025497</v>
+        <v>182.42031641707649</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5611,7 +5387,7 @@
         <v>23</v>
       </c>
       <c r="B234">
-        <v>41.340606491192801</v>
+        <v>190.0218194735784</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5619,7 +5395,7 @@
         <v>23</v>
       </c>
       <c r="B235">
-        <v>30.3939535226842</v>
+        <v>157.1818605680526</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5627,7 +5403,7 @@
         <v>23</v>
       </c>
       <c r="B236">
-        <v>31.936532222777799</v>
+        <v>161.8095966683334</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5635,7 +5411,7 @@
         <v>23</v>
       </c>
       <c r="B237">
-        <v>32.893099845400101</v>
+        <v>164.67929953620029</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5643,7 +5419,7 @@
         <v>23</v>
       </c>
       <c r="B238">
-        <v>33.268385534682402</v>
+        <v>165.8051566040472</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5651,7 +5427,7 @@
         <v>23</v>
       </c>
       <c r="B239">
-        <v>22.2088258887817</v>
+        <v>132.62647766634512</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5659,7 +5435,7 @@
         <v>23</v>
       </c>
       <c r="B240">
-        <v>42.122291252337497</v>
+        <v>192.36687375701251</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5667,7 +5443,7 @@
         <v>23</v>
       </c>
       <c r="B241">
-        <v>27.474834812619399</v>
+        <v>148.42450443785819</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5675,7 +5451,7 @@
         <v>23</v>
       </c>
       <c r="B242">
-        <v>37.315342550034401</v>
+        <v>177.94602765010319</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5683,7 +5459,7 @@
         <v>23</v>
       </c>
       <c r="B243">
-        <v>34.48756686702</v>
+        <v>169.46270060105999</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5691,7 +5467,7 @@
         <v>23</v>
       </c>
       <c r="B244">
-        <v>37.753845599049299</v>
+        <v>179.2615367971479</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5699,7 +5475,7 @@
         <v>23</v>
       </c>
       <c r="B245">
-        <v>33.531903164355398</v>
+        <v>166.59570949306618</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5707,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="B246">
-        <v>40.4022915583203</v>
+        <v>187.20687467496089</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5715,7 +5491,7 @@
         <v>23</v>
       </c>
       <c r="B247">
-        <v>34.746989976742199</v>
+        <v>170.24096993022658</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5723,7 +5499,7 @@
         <v>23</v>
       </c>
       <c r="B248">
-        <v>40.993634597507402</v>
+        <v>188.98090379252221</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5731,7 +5507,7 @@
         <v>23</v>
       </c>
       <c r="B249">
-        <v>39.876997777440401</v>
+        <v>185.6309933323212</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5739,7 +5515,7 @@
         <v>23</v>
       </c>
       <c r="B250">
-        <v>42.650843450467796</v>
+        <v>193.95253035140337</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5747,7 +5523,7 @@
         <v>23</v>
       </c>
       <c r="B251">
-        <v>34.264910605177</v>
+        <v>168.79473181553101</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5755,7 +5531,7 @@
         <v>23</v>
       </c>
       <c r="B252">
-        <v>33.444907382617501</v>
+        <v>166.33472214785252</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5763,7 +5539,7 @@
         <v>23</v>
       </c>
       <c r="B253">
-        <v>31.776864084056001</v>
+        <v>161.330592252168</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5771,7 +5547,7 @@
         <v>24</v>
       </c>
       <c r="B254">
-        <v>33.324955502573999</v>
+        <v>165.974866507722</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5779,7 +5555,7 @@
         <v>24</v>
       </c>
       <c r="B255">
-        <v>25.371930712202399</v>
+        <v>142.11579213660718</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5787,7 +5563,7 @@
         <v>24</v>
       </c>
       <c r="B256">
-        <v>29.716858844130702</v>
+        <v>155.15057653239211</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5795,7 +5571,7 @@
         <v>24</v>
       </c>
       <c r="B257">
-        <v>38.129772639084798</v>
+        <v>180.3893179172544</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5803,7 +5579,7 @@
         <v>24</v>
       </c>
       <c r="B258">
-        <v>34.371883760802802</v>
+        <v>169.11565128240841</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5811,7 +5587,7 @@
         <v>24</v>
       </c>
       <c r="B259">
-        <v>35.794946111906398</v>
+        <v>173.38483833571919</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5819,7 +5595,7 @@
         <v>24</v>
       </c>
       <c r="B260">
-        <v>37.883972401804101</v>
+        <v>179.6519172054123</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5827,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="B261">
-        <v>30.902307131796899</v>
+        <v>158.70692139539071</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5835,7 +5611,7 @@
         <v>24</v>
       </c>
       <c r="B262">
-        <v>29.747184239511402</v>
+        <v>155.24155271853419</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5843,7 +5619,7 @@
         <v>24</v>
       </c>
       <c r="B263">
-        <v>29.389861804300502</v>
+        <v>154.16958541290151</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5851,7 +5627,7 @@
         <v>24</v>
       </c>
       <c r="B264">
-        <v>28.333616724962202</v>
+        <v>151.00085017488658</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5859,7 +5635,7 @@
         <v>24</v>
       </c>
       <c r="B265">
-        <v>36.776908230048697</v>
+        <v>176.3307246901461</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5867,7 +5643,7 @@
         <v>24</v>
       </c>
       <c r="B266">
-        <v>29.713703759473301</v>
+        <v>155.14111127841991</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5875,7 +5651,7 @@
         <v>24</v>
       </c>
       <c r="B267">
-        <v>28.036078845931801</v>
+        <v>150.10823653779539</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5883,7 +5659,7 @@
         <v>24</v>
       </c>
       <c r="B268">
-        <v>21.6465916462457</v>
+        <v>130.93977493873709</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5891,7 +5667,7 @@
         <v>24</v>
       </c>
       <c r="B269">
-        <v>32.7205959831782</v>
+        <v>164.16178794953458</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5899,7 +5675,7 @@
         <v>24</v>
       </c>
       <c r="B270">
-        <v>31.416565067205699</v>
+        <v>160.2496952016171</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5907,7 +5683,7 @@
         <v>24</v>
       </c>
       <c r="B271">
-        <v>44.392950178626101</v>
+        <v>199.17885053587833</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5915,7 +5691,7 @@
         <v>24</v>
       </c>
       <c r="B272">
-        <v>29.6461002131486</v>
+        <v>154.9383006394458</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5923,7 +5699,7 @@
         <v>24</v>
       </c>
       <c r="B273">
-        <v>43.904649179474298</v>
+        <v>197.71394753842287</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5931,7 +5707,7 @@
         <v>24</v>
       </c>
       <c r="B274">
-        <v>27.453150532464299</v>
+        <v>148.3594515973929</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5939,7 +5715,7 @@
         <v>24</v>
       </c>
       <c r="B275">
-        <v>32.646018596705296</v>
+        <v>163.9380557901159</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5947,7 +5723,7 @@
         <v>24</v>
       </c>
       <c r="B276">
-        <v>37.317401906163099</v>
+        <v>177.9522057184893</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5955,7 +5731,7 @@
         <v>24</v>
       </c>
       <c r="B277">
-        <v>29.9747161299982</v>
+        <v>155.9241483899946</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5963,7 +5739,7 @@
         <v>24</v>
       </c>
       <c r="B278">
-        <v>45.232113503813402</v>
+        <v>201.69634051144018</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5971,7 +5747,7 @@
         <v>24</v>
       </c>
       <c r="B279">
-        <v>31.734722107900801</v>
+        <v>161.2041663237024</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5979,7 +5755,7 @@
         <v>24</v>
       </c>
       <c r="B280">
-        <v>39.2376946144485</v>
+        <v>183.71308384334549</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5987,7 +5763,7 @@
         <v>24</v>
       </c>
       <c r="B281">
-        <v>30.8376385890144</v>
+        <v>158.51291576704321</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5995,7 +5771,7 @@
         <v>24</v>
       </c>
       <c r="B282">
-        <v>31.359545289608601</v>
+        <v>160.07863586882581</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -6003,7 +5779,7 @@
         <v>24</v>
       </c>
       <c r="B283">
-        <v>34.223560547712701</v>
+        <v>168.6706816431381</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -6011,7 +5787,7 @@
         <v>24</v>
       </c>
       <c r="B284">
-        <v>30.572385277044901</v>
+        <v>157.7171558311347</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -6019,7 +5795,7 @@
         <v>24</v>
       </c>
       <c r="B285">
-        <v>44.648192427519398</v>
+        <v>199.94457728255821</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -6027,7 +5803,7 @@
         <v>24</v>
       </c>
       <c r="B286">
-        <v>35.009593058738901</v>
+        <v>171.02877917621669</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -6035,7 +5811,7 @@
         <v>24</v>
       </c>
       <c r="B287">
-        <v>26.483660205530601</v>
+        <v>145.45098061659178</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -6043,7 +5819,7 @@
         <v>24</v>
       </c>
       <c r="B288">
-        <v>39.416709572950801</v>
+        <v>184.25012871885241</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -6051,7 +5827,7 @@
         <v>24</v>
       </c>
       <c r="B289">
-        <v>36.7265026745754</v>
+        <v>176.17950802372621</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -6059,7 +5835,7 @@
         <v>24</v>
       </c>
       <c r="B290">
-        <v>42.655911956036299</v>
+        <v>193.96773586810892</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -6067,7 +5843,7 @@
         <v>24</v>
       </c>
       <c r="B291">
-        <v>26.334401101610698</v>
+        <v>145.00320330483208</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -6075,7 +5851,7 @@
         <v>24</v>
       </c>
       <c r="B292">
-        <v>33.507219888324698</v>
+        <v>166.52165966497409</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -6083,7 +5859,7 @@
         <v>24</v>
       </c>
       <c r="B293">
-        <v>29.076478524915501</v>
+        <v>153.2294355747465</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -6091,7 +5867,7 @@
         <v>24</v>
       </c>
       <c r="B294">
-        <v>33.372518720650497</v>
+        <v>166.11755616195148</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -6099,7 +5875,7 @@
         <v>24</v>
       </c>
       <c r="B295">
-        <v>41.072928495394102</v>
+        <v>189.2187854861823</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -6107,7 +5883,7 @@
         <v>24</v>
       </c>
       <c r="B296">
-        <v>25.458960791526799</v>
+        <v>142.37688237458039</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -6115,7 +5891,7 @@
         <v>24</v>
       </c>
       <c r="B297">
-        <v>26.354126370609499</v>
+        <v>145.06237911182851</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -6123,7 +5899,7 @@
         <v>24</v>
       </c>
       <c r="B298">
-        <v>33.852968952067897</v>
+        <v>167.55890685620369</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -6131,7 +5907,7 @@
         <v>24</v>
       </c>
       <c r="B299">
-        <v>38.999643454263399</v>
+        <v>182.99893036279019</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -6139,7 +5915,7 @@
         <v>24</v>
       </c>
       <c r="B300">
-        <v>28.306907502099602</v>
+        <v>150.92072250629883</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -6147,7 +5923,7 @@
         <v>24</v>
       </c>
       <c r="B301">
-        <v>44.355778686057597</v>
+        <v>199.06733605817277</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -6155,7 +5931,7 @@
         <v>24</v>
       </c>
       <c r="B302">
-        <v>41.6534376489669</v>
+        <v>190.9603129469007</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -6163,7 +5939,7 @@
         <v>24</v>
       </c>
       <c r="B303">
-        <v>41.537638730056997</v>
+        <v>190.61291619017101</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -6171,7 +5947,7 @@
         <v>24</v>
       </c>
       <c r="B304">
-        <v>35.009150647496597</v>
+        <v>171.02745194248979</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -6179,7 +5955,7 @@
         <v>24</v>
       </c>
       <c r="B305">
-        <v>19.5279325075069</v>
+        <v>124.58379752252071</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -6187,7 +5963,7 @@
         <v>24</v>
       </c>
       <c r="B306">
-        <v>30.548576431790799</v>
+        <v>157.6457292953724</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6195,7 +5971,7 @@
         <v>24</v>
       </c>
       <c r="B307">
-        <v>36.593263545385902</v>
+        <v>175.77979063615771</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6203,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="B308">
-        <v>40.361355932501802</v>
+        <v>187.08406779750541</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6211,7 +5987,7 @@
         <v>24</v>
       </c>
       <c r="B309">
-        <v>31.5477854316471</v>
+        <v>160.6433562949413</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6219,7 +5995,7 @@
         <v>24</v>
       </c>
       <c r="B310">
-        <v>28.8135287152054</v>
+        <v>152.44058614561621</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6227,7 +6003,7 @@
         <v>24</v>
       </c>
       <c r="B311">
-        <v>42.469690353131597</v>
+        <v>193.40907105939479</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6235,7 +6011,7 @@
         <v>24</v>
       </c>
       <c r="B312">
-        <v>35.1897772747541</v>
+        <v>171.56933182426229</v>
       </c>
     </row>
   </sheetData>
@@ -6248,7 +6024,7 @@
   <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6266,7 +6042,7 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6274,7 +6050,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6282,7 +6058,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>360</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -6290,7 +6066,7 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6298,7 +6074,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6306,7 +6082,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6314,7 +6090,7 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -6322,7 +6098,7 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>430</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -6330,7 +6106,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>396</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6338,7 +6114,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>395</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6346,7 +6122,7 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>372</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6354,7 +6130,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>403</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6362,7 +6138,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>417</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6370,7 +6146,7 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>429</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6378,7 +6154,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>392</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -6386,7 +6162,7 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>380</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6394,7 +6170,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6402,7 +6178,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -6410,7 +6186,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>359</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -6418,7 +6194,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>367</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -6426,7 +6202,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>391</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6434,7 +6210,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6442,7 +6218,7 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>396</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -6450,7 +6226,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>392</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6458,7 +6234,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>412</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6466,7 +6242,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>418</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -6474,7 +6250,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>378</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -6482,7 +6258,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -6490,7 +6266,7 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>359</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -6498,7 +6274,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -6506,7 +6282,7 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>405</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6514,7 +6290,7 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <v>397</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -6522,7 +6298,7 @@
         <v>27</v>
       </c>
       <c r="B34">
-        <v>417</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -6530,7 +6306,7 @@
         <v>27</v>
       </c>
       <c r="B35">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -6538,7 +6314,7 @@
         <v>27</v>
       </c>
       <c r="B36">
-        <v>406</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -6546,7 +6322,7 @@
         <v>27</v>
       </c>
       <c r="B37">
-        <v>404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -6554,7 +6330,7 @@
         <v>27</v>
       </c>
       <c r="B38">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -6562,7 +6338,7 @@
         <v>27</v>
       </c>
       <c r="B39">
-        <v>395</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -6570,7 +6346,7 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -6578,7 +6354,7 @@
         <v>27</v>
       </c>
       <c r="B41">
-        <v>402</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -6586,7 +6362,7 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <v>356</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6594,7 +6370,7 @@
         <v>27</v>
       </c>
       <c r="B43">
-        <v>360</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -6602,7 +6378,7 @@
         <v>27</v>
       </c>
       <c r="B44">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -6610,7 +6386,7 @@
         <v>27</v>
       </c>
       <c r="B45">
-        <v>371</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6618,7 +6394,7 @@
         <v>27</v>
       </c>
       <c r="B46">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -6626,7 +6402,7 @@
         <v>27</v>
       </c>
       <c r="B47">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6634,7 +6410,7 @@
         <v>27</v>
       </c>
       <c r="B48">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -6642,7 +6418,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>370</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -6650,7 +6426,7 @@
         <v>27</v>
       </c>
       <c r="B50">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -6658,7 +6434,7 @@
         <v>27</v>
       </c>
       <c r="B51">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -6666,7 +6442,7 @@
         <v>27</v>
       </c>
       <c r="B52">
-        <v>403</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -6674,7 +6450,7 @@
         <v>27</v>
       </c>
       <c r="B53">
-        <v>356</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -6682,7 +6458,7 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -6690,7 +6466,7 @@
         <v>27</v>
       </c>
       <c r="B55">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -6698,7 +6474,7 @@
         <v>27</v>
       </c>
       <c r="B56">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -6706,7 +6482,7 @@
         <v>27</v>
       </c>
       <c r="B57">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -6714,7 +6490,7 @@
         <v>27</v>
       </c>
       <c r="B58">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -6722,7 +6498,7 @@
         <v>27</v>
       </c>
       <c r="B59">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -6730,7 +6506,7 @@
         <v>27</v>
       </c>
       <c r="B60">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -6738,7 +6514,7 @@
         <v>27</v>
       </c>
       <c r="B61">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -6746,7 +6522,7 @@
         <v>27</v>
       </c>
       <c r="B62">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -6754,7 +6530,7 @@
         <v>27</v>
       </c>
       <c r="B63">
-        <v>389</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -6762,7 +6538,7 @@
         <v>27</v>
       </c>
       <c r="B64">
-        <v>415</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -6770,7 +6546,7 @@
         <v>27</v>
       </c>
       <c r="B65">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -6778,7 +6554,7 @@
         <v>27</v>
       </c>
       <c r="B66">
-        <v>408</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -6786,7 +6562,7 @@
         <v>27</v>
       </c>
       <c r="B67">
-        <v>370</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -6794,7 +6570,7 @@
         <v>27</v>
       </c>
       <c r="B68">
-        <v>355</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -6802,7 +6578,7 @@
         <v>27</v>
       </c>
       <c r="B69">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -6810,7 +6586,7 @@
         <v>27</v>
       </c>
       <c r="B70">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -6818,7 +6594,7 @@
         <v>27</v>
       </c>
       <c r="B71">
-        <v>365</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -6826,7 +6602,7 @@
         <v>27</v>
       </c>
       <c r="B72">
-        <v>366</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -6834,7 +6610,7 @@
         <v>27</v>
       </c>
       <c r="B73">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -6842,7 +6618,7 @@
         <v>27</v>
       </c>
       <c r="B74">
-        <v>384</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -6850,7 +6626,7 @@
         <v>27</v>
       </c>
       <c r="B75">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -6858,7 +6634,7 @@
         <v>27</v>
       </c>
       <c r="B76">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -6866,7 +6642,7 @@
         <v>27</v>
       </c>
       <c r="B77">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -6874,7 +6650,7 @@
         <v>27</v>
       </c>
       <c r="B78">
-        <v>397</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -6882,7 +6658,7 @@
         <v>27</v>
       </c>
       <c r="B79">
-        <v>408</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -6890,7 +6666,7 @@
         <v>27</v>
       </c>
       <c r="B80">
-        <v>359</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -6898,7 +6674,7 @@
         <v>27</v>
       </c>
       <c r="B81">
-        <v>352</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -6906,7 +6682,7 @@
         <v>27</v>
       </c>
       <c r="B82">
-        <v>367</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -6914,7 +6690,7 @@
         <v>27</v>
       </c>
       <c r="B83">
-        <v>389</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -6922,7 +6698,7 @@
         <v>27</v>
       </c>
       <c r="B84">
-        <v>421</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -6930,7 +6706,7 @@
         <v>27</v>
       </c>
       <c r="B85">
-        <v>374</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -6938,7 +6714,7 @@
         <v>27</v>
       </c>
       <c r="B86">
-        <v>412</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -6946,7 +6722,7 @@
         <v>27</v>
       </c>
       <c r="B87">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -6954,7 +6730,7 @@
         <v>27</v>
       </c>
       <c r="B88">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -6962,7 +6738,7 @@
         <v>27</v>
       </c>
       <c r="B89">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -6970,7 +6746,7 @@
         <v>27</v>
       </c>
       <c r="B90">
-        <v>373</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -6978,7 +6754,7 @@
         <v>27</v>
       </c>
       <c r="B91">
-        <v>380</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -6986,7 +6762,7 @@
         <v>27</v>
       </c>
       <c r="B92">
-        <v>404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -6994,7 +6770,7 @@
         <v>27</v>
       </c>
       <c r="B93">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -7002,7 +6778,7 @@
         <v>27</v>
       </c>
       <c r="B94">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -7010,7 +6786,7 @@
         <v>27</v>
       </c>
       <c r="B95">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -7018,7 +6794,7 @@
         <v>27</v>
       </c>
       <c r="B96">
-        <v>419</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -7026,7 +6802,7 @@
         <v>27</v>
       </c>
       <c r="B97">
-        <v>405</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -7034,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="B98">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -7042,7 +6818,7 @@
         <v>27</v>
       </c>
       <c r="B99">
-        <v>379</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -7050,7 +6826,7 @@
         <v>27</v>
       </c>
       <c r="B100">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -7058,7 +6834,7 @@
         <v>27</v>
       </c>
       <c r="B101">
-        <v>380</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -7066,7 +6842,7 @@
         <v>27</v>
       </c>
       <c r="B102">
-        <v>436</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -7074,7 +6850,7 @@
         <v>27</v>
       </c>
       <c r="B103">
-        <v>389</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -7082,7 +6858,7 @@
         <v>27</v>
       </c>
       <c r="B104">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -7090,7 +6866,7 @@
         <v>27</v>
       </c>
       <c r="B105">
-        <v>395</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -7098,7 +6874,7 @@
         <v>27</v>
       </c>
       <c r="B106">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -7106,7 +6882,7 @@
         <v>27</v>
       </c>
       <c r="B107">
-        <v>435</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -7114,7 +6890,7 @@
         <v>27</v>
       </c>
       <c r="B108">
-        <v>389</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -7122,7 +6898,7 @@
         <v>27</v>
       </c>
       <c r="B109">
-        <v>412</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -7130,7 +6906,7 @@
         <v>27</v>
       </c>
       <c r="B110">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -7138,7 +6914,7 @@
         <v>27</v>
       </c>
       <c r="B111">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -7146,7 +6922,7 @@
         <v>27</v>
       </c>
       <c r="B112">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -7154,7 +6930,7 @@
         <v>27</v>
       </c>
       <c r="B113">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -7162,7 +6938,7 @@
         <v>27</v>
       </c>
       <c r="B114">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -7170,7 +6946,7 @@
         <v>27</v>
       </c>
       <c r="B115">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -7178,7 +6954,7 @@
         <v>27</v>
       </c>
       <c r="B116">
-        <v>403</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -7186,7 +6962,7 @@
         <v>27</v>
       </c>
       <c r="B117">
-        <v>391</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -7194,7 +6970,7 @@
         <v>27</v>
       </c>
       <c r="B118">
-        <v>438</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -7202,7 +6978,7 @@
         <v>27</v>
       </c>
       <c r="B119">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -7210,7 +6986,7 @@
         <v>27</v>
       </c>
       <c r="B120">
-        <v>421</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -7218,7 +6994,7 @@
         <v>27</v>
       </c>
       <c r="B121">
-        <v>414</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -7226,7 +7002,7 @@
         <v>28</v>
       </c>
       <c r="B122">
-        <v>437</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -7234,7 +7010,7 @@
         <v>28</v>
       </c>
       <c r="B123">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -7242,7 +7018,7 @@
         <v>28</v>
       </c>
       <c r="B124">
-        <v>388</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -7250,7 +7026,7 @@
         <v>28</v>
       </c>
       <c r="B125">
-        <v>417</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -7258,7 +7034,7 @@
         <v>28</v>
       </c>
       <c r="B126">
-        <v>401</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -7266,7 +7042,7 @@
         <v>28</v>
       </c>
       <c r="B127">
-        <v>418</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -7274,7 +7050,7 @@
         <v>28</v>
       </c>
       <c r="B128">
-        <v>457</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -7282,7 +7058,7 @@
         <v>28</v>
       </c>
       <c r="B129">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -7290,7 +7066,7 @@
         <v>28</v>
       </c>
       <c r="B130">
-        <v>415</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -7298,7 +7074,7 @@
         <v>28</v>
       </c>
       <c r="B131">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -7306,7 +7082,7 @@
         <v>28</v>
       </c>
       <c r="B132">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -7314,7 +7090,7 @@
         <v>28</v>
       </c>
       <c r="B133">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -7322,7 +7098,7 @@
         <v>28</v>
       </c>
       <c r="B134">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -7330,7 +7106,7 @@
         <v>28</v>
       </c>
       <c r="B135">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -7338,7 +7114,7 @@
         <v>28</v>
       </c>
       <c r="B136">
-        <v>434</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -7346,7 +7122,7 @@
         <v>28</v>
       </c>
       <c r="B137">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -7354,7 +7130,7 @@
         <v>28</v>
       </c>
       <c r="B138">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -7362,7 +7138,7 @@
         <v>28</v>
       </c>
       <c r="B139">
-        <v>406</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -7370,7 +7146,7 @@
         <v>28</v>
       </c>
       <c r="B140">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -7378,7 +7154,7 @@
         <v>28</v>
       </c>
       <c r="B141">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -7386,7 +7162,7 @@
         <v>28</v>
       </c>
       <c r="B142">
-        <v>421</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -7394,7 +7170,7 @@
         <v>28</v>
       </c>
       <c r="B143">
-        <v>389</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -7402,7 +7178,7 @@
         <v>28</v>
       </c>
       <c r="B144">
-        <v>439</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -7410,7 +7186,7 @@
         <v>28</v>
       </c>
       <c r="B145">
-        <v>405</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -7418,7 +7194,7 @@
         <v>28</v>
       </c>
       <c r="B146">
-        <v>420</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -7426,7 +7202,7 @@
         <v>28</v>
       </c>
       <c r="B147">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -7434,7 +7210,7 @@
         <v>28</v>
       </c>
       <c r="B148">
-        <v>418</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -7442,7 +7218,7 @@
         <v>28</v>
       </c>
       <c r="B149">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -7450,7 +7226,7 @@
         <v>28</v>
       </c>
       <c r="B150">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -7458,7 +7234,7 @@
         <v>28</v>
       </c>
       <c r="B151">
-        <v>404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -7466,7 +7242,7 @@
         <v>28</v>
       </c>
       <c r="B152">
-        <v>446</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -7474,7 +7250,7 @@
         <v>28</v>
       </c>
       <c r="B153">
-        <v>395</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -7482,7 +7258,7 @@
         <v>28</v>
       </c>
       <c r="B154">
-        <v>444</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -7490,7 +7266,7 @@
         <v>28</v>
       </c>
       <c r="B155">
-        <v>403</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -7498,7 +7274,7 @@
         <v>28</v>
       </c>
       <c r="B156">
-        <v>437</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -7506,7 +7282,7 @@
         <v>28</v>
       </c>
       <c r="B157">
-        <v>441</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -7514,7 +7290,7 @@
         <v>28</v>
       </c>
       <c r="B158">
-        <v>405</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -7522,7 +7298,7 @@
         <v>28</v>
       </c>
       <c r="B159">
-        <v>429</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -7530,7 +7306,7 @@
         <v>28</v>
       </c>
       <c r="B160">
-        <v>404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -7538,7 +7314,7 @@
         <v>28</v>
       </c>
       <c r="B161">
-        <v>406</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -7546,7 +7322,7 @@
         <v>28</v>
       </c>
       <c r="B162">
-        <v>440</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -7554,7 +7330,7 @@
         <v>28</v>
       </c>
       <c r="B163">
-        <v>438</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -7562,7 +7338,7 @@
         <v>28</v>
       </c>
       <c r="B164">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -7570,7 +7346,7 @@
         <v>28</v>
       </c>
       <c r="B165">
-        <v>442</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -7578,7 +7354,7 @@
         <v>28</v>
       </c>
       <c r="B166">
-        <v>444</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -7586,7 +7362,7 @@
         <v>28</v>
       </c>
       <c r="B167">
-        <v>421</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -7594,7 +7370,7 @@
         <v>28</v>
       </c>
       <c r="B168">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -7602,7 +7378,7 @@
         <v>28</v>
       </c>
       <c r="B169">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -7610,7 +7386,7 @@
         <v>28</v>
       </c>
       <c r="B170">
-        <v>419</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -7618,7 +7394,7 @@
         <v>28</v>
       </c>
       <c r="B171">
-        <v>468</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -7626,7 +7402,7 @@
         <v>28</v>
       </c>
       <c r="B172">
-        <v>456</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -7634,7 +7410,7 @@
         <v>28</v>
       </c>
       <c r="B173">
-        <v>403</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -7642,7 +7418,7 @@
         <v>28</v>
       </c>
       <c r="B174">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -7650,7 +7426,7 @@
         <v>28</v>
       </c>
       <c r="B175">
-        <v>443</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -7658,7 +7434,7 @@
         <v>28</v>
       </c>
       <c r="B176">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -7666,7 +7442,7 @@
         <v>28</v>
       </c>
       <c r="B177">
-        <v>451</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -7674,7 +7450,7 @@
         <v>28</v>
       </c>
       <c r="B178">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -7682,7 +7458,7 @@
         <v>28</v>
       </c>
       <c r="B179">
-        <v>440</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -7690,7 +7466,7 @@
         <v>28</v>
       </c>
       <c r="B180">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -7698,7 +7474,7 @@
         <v>28</v>
       </c>
       <c r="B181">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -7706,7 +7482,7 @@
         <v>28</v>
       </c>
       <c r="B182">
-        <v>404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -7714,7 +7490,7 @@
         <v>28</v>
       </c>
       <c r="B183">
-        <v>401</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -7722,7 +7498,7 @@
         <v>28</v>
       </c>
       <c r="B184">
-        <v>439</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -7730,7 +7506,7 @@
         <v>28</v>
       </c>
       <c r="B185">
-        <v>441</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -7738,7 +7514,7 @@
         <v>28</v>
       </c>
       <c r="B186">
-        <v>391</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -7746,7 +7522,7 @@
         <v>28</v>
       </c>
       <c r="B187">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -7754,7 +7530,7 @@
         <v>28</v>
       </c>
       <c r="B188">
-        <v>467</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -7762,7 +7538,7 @@
         <v>28</v>
       </c>
       <c r="B189">
-        <v>386</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -7770,7 +7546,7 @@
         <v>28</v>
       </c>
       <c r="B190">
-        <v>406</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -7778,7 +7554,7 @@
         <v>28</v>
       </c>
       <c r="B191">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -7786,7 +7562,7 @@
         <v>28</v>
       </c>
       <c r="B192">
-        <v>419</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -7794,7 +7570,7 @@
         <v>28</v>
       </c>
       <c r="B193">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -7802,7 +7578,7 @@
         <v>28</v>
       </c>
       <c r="B194">
-        <v>462</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -7810,7 +7586,7 @@
         <v>28</v>
       </c>
       <c r="B195">
-        <v>446</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -7818,7 +7594,7 @@
         <v>28</v>
       </c>
       <c r="B196">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -7826,7 +7602,7 @@
         <v>28</v>
       </c>
       <c r="B197">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -7834,7 +7610,7 @@
         <v>28</v>
       </c>
       <c r="B198">
-        <v>418</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -7842,7 +7618,7 @@
         <v>28</v>
       </c>
       <c r="B199">
-        <v>429</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -7850,7 +7626,7 @@
         <v>28</v>
       </c>
       <c r="B200">
-        <v>448</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -7858,7 +7634,7 @@
         <v>28</v>
       </c>
       <c r="B201">
-        <v>388</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -7866,7 +7642,7 @@
         <v>28</v>
       </c>
       <c r="B202">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -7874,7 +7650,7 @@
         <v>28</v>
       </c>
       <c r="B203">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -7882,7 +7658,7 @@
         <v>28</v>
       </c>
       <c r="B204">
-        <v>406</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -7890,7 +7666,7 @@
         <v>28</v>
       </c>
       <c r="B205">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -7898,7 +7674,7 @@
         <v>28</v>
       </c>
       <c r="B206">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -7906,7 +7682,7 @@
         <v>28</v>
       </c>
       <c r="B207">
-        <v>415</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -7914,7 +7690,7 @@
         <v>28</v>
       </c>
       <c r="B208">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -7922,7 +7698,7 @@
         <v>28</v>
       </c>
       <c r="B209">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -7930,7 +7706,7 @@
         <v>28</v>
       </c>
       <c r="B210">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -7938,7 +7714,7 @@
         <v>28</v>
       </c>
       <c r="B211">
-        <v>441</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -7946,7 +7722,7 @@
         <v>28</v>
       </c>
       <c r="B212">
-        <v>378</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -7954,7 +7730,7 @@
         <v>28</v>
       </c>
       <c r="B213">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -7962,7 +7738,7 @@
         <v>28</v>
       </c>
       <c r="B214">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -7970,7 +7746,7 @@
         <v>28</v>
       </c>
       <c r="B215">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -7978,7 +7754,7 @@
         <v>28</v>
       </c>
       <c r="B216">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -7986,7 +7762,7 @@
         <v>28</v>
       </c>
       <c r="B217">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -7994,7 +7770,7 @@
         <v>28</v>
       </c>
       <c r="B218">
-        <v>439</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -8002,7 +7778,7 @@
         <v>28</v>
       </c>
       <c r="B219">
-        <v>440</v>
+        <v>44</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -8010,7 +7786,7 @@
         <v>28</v>
       </c>
       <c r="B220">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -8018,7 +7794,7 @@
         <v>28</v>
       </c>
       <c r="B221">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -8026,7 +7802,7 @@
         <v>28</v>
       </c>
       <c r="B222">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -8034,7 +7810,7 @@
         <v>28</v>
       </c>
       <c r="B223">
-        <v>431</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -8042,7 +7818,7 @@
         <v>28</v>
       </c>
       <c r="B224">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -8050,7 +7826,7 @@
         <v>28</v>
       </c>
       <c r="B225">
-        <v>405</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -8058,7 +7834,7 @@
         <v>28</v>
       </c>
       <c r="B226">
-        <v>348</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -8066,7 +7842,7 @@
         <v>28</v>
       </c>
       <c r="B227">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -8074,7 +7850,7 @@
         <v>28</v>
       </c>
       <c r="B228">
-        <v>395</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -8082,7 +7858,7 @@
         <v>28</v>
       </c>
       <c r="B229">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -8090,7 +7866,7 @@
         <v>28</v>
       </c>
       <c r="B230">
-        <v>406</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -8098,7 +7874,7 @@
         <v>28</v>
       </c>
       <c r="B231">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -8106,7 +7882,7 @@
         <v>28</v>
       </c>
       <c r="B232">
-        <v>436</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -8114,7 +7890,7 @@
         <v>28</v>
       </c>
       <c r="B233">
-        <v>442</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -8122,7 +7898,7 @@
         <v>28</v>
       </c>
       <c r="B234">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -8130,7 +7906,7 @@
         <v>28</v>
       </c>
       <c r="B235">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -8138,7 +7914,7 @@
         <v>28</v>
       </c>
       <c r="B236">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -8146,7 +7922,7 @@
         <v>28</v>
       </c>
       <c r="B237">
-        <v>391</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -8154,7 +7930,7 @@
         <v>28</v>
       </c>
       <c r="B238">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -8162,7 +7938,7 @@
         <v>28</v>
       </c>
       <c r="B239">
-        <v>404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -8170,7 +7946,7 @@
         <v>28</v>
       </c>
       <c r="B240">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -8178,7 +7954,7 @@
         <v>28</v>
       </c>
       <c r="B241">
-        <v>445</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -8186,7 +7962,7 @@
         <v>29</v>
       </c>
       <c r="B242">
-        <v>358</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -8194,7 +7970,7 @@
         <v>29</v>
       </c>
       <c r="B243">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -8202,7 +7978,7 @@
         <v>29</v>
       </c>
       <c r="B244">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -8210,7 +7986,7 @@
         <v>29</v>
       </c>
       <c r="B245">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -8218,7 +7994,7 @@
         <v>29</v>
       </c>
       <c r="B246">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -8226,7 +8002,7 @@
         <v>29</v>
       </c>
       <c r="B247">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -8234,7 +8010,7 @@
         <v>29</v>
       </c>
       <c r="B248">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -8242,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="B249">
-        <v>438</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -8250,7 +8026,7 @@
         <v>29</v>
       </c>
       <c r="B250">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -8258,7 +8034,7 @@
         <v>29</v>
       </c>
       <c r="B251">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -8266,7 +8042,7 @@
         <v>29</v>
       </c>
       <c r="B252">
-        <v>373</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -8274,7 +8050,7 @@
         <v>29</v>
       </c>
       <c r="B253">
-        <v>430</v>
+        <v>43</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -8282,7 +8058,7 @@
         <v>29</v>
       </c>
       <c r="B254">
-        <v>460</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -8290,7 +8066,7 @@
         <v>29</v>
       </c>
       <c r="B255">
-        <v>436</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -8298,7 +8074,7 @@
         <v>29</v>
       </c>
       <c r="B256">
-        <v>386</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -8306,7 +8082,7 @@
         <v>29</v>
       </c>
       <c r="B257">
-        <v>381</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -8314,7 +8090,7 @@
         <v>29</v>
       </c>
       <c r="B258">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -8322,7 +8098,7 @@
         <v>29</v>
       </c>
       <c r="B259">
-        <v>377</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -8330,7 +8106,7 @@
         <v>29</v>
       </c>
       <c r="B260">
-        <v>391</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -8338,7 +8114,7 @@
         <v>29</v>
       </c>
       <c r="B261">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -8346,7 +8122,7 @@
         <v>29</v>
       </c>
       <c r="B262">
-        <v>365</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -8354,7 +8130,7 @@
         <v>29</v>
       </c>
       <c r="B263">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -8362,7 +8138,7 @@
         <v>29</v>
       </c>
       <c r="B264">
-        <v>421</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -8370,7 +8146,7 @@
         <v>29</v>
       </c>
       <c r="B265">
-        <v>387</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -8378,7 +8154,7 @@
         <v>29</v>
       </c>
       <c r="B266">
-        <v>438</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -8386,7 +8162,7 @@
         <v>29</v>
       </c>
       <c r="B267">
-        <v>379</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -8394,7 +8170,7 @@
         <v>29</v>
       </c>
       <c r="B268">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -8402,7 +8178,7 @@
         <v>29</v>
       </c>
       <c r="B269">
-        <v>447</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -8410,7 +8186,7 @@
         <v>29</v>
       </c>
       <c r="B270">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -8418,7 +8194,7 @@
         <v>29</v>
       </c>
       <c r="B271">
-        <v>384</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -8426,7 +8202,7 @@
         <v>29</v>
       </c>
       <c r="B272">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -8434,7 +8210,7 @@
         <v>29</v>
       </c>
       <c r="B273">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -8442,7 +8218,7 @@
         <v>29</v>
       </c>
       <c r="B274">
-        <v>417</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -8450,7 +8226,7 @@
         <v>29</v>
       </c>
       <c r="B275">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -8458,7 +8234,7 @@
         <v>29</v>
       </c>
       <c r="B276">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -8466,7 +8242,7 @@
         <v>29</v>
       </c>
       <c r="B277">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -8474,7 +8250,7 @@
         <v>29</v>
       </c>
       <c r="B278">
-        <v>420</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -8482,7 +8258,7 @@
         <v>29</v>
       </c>
       <c r="B279">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -8490,7 +8266,7 @@
         <v>29</v>
       </c>
       <c r="B280">
-        <v>384</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -8498,7 +8274,7 @@
         <v>29</v>
       </c>
       <c r="B281">
-        <v>429</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -8506,7 +8282,7 @@
         <v>29</v>
       </c>
       <c r="B282">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -8514,7 +8290,7 @@
         <v>29</v>
       </c>
       <c r="B283">
-        <v>414</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -8522,7 +8298,7 @@
         <v>29</v>
       </c>
       <c r="B284">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -8530,7 +8306,7 @@
         <v>29</v>
       </c>
       <c r="B285">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -8538,7 +8314,7 @@
         <v>29</v>
       </c>
       <c r="B286">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -8546,7 +8322,7 @@
         <v>29</v>
       </c>
       <c r="B287">
-        <v>451</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -8554,7 +8330,7 @@
         <v>29</v>
       </c>
       <c r="B288">
-        <v>376</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -8562,7 +8338,7 @@
         <v>29</v>
       </c>
       <c r="B289">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -8570,7 +8346,7 @@
         <v>29</v>
       </c>
       <c r="B290">
-        <v>430</v>
+        <v>43</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -8578,7 +8354,7 @@
         <v>29</v>
       </c>
       <c r="B291">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -8586,7 +8362,7 @@
         <v>29</v>
       </c>
       <c r="B292">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -8594,7 +8370,7 @@
         <v>29</v>
       </c>
       <c r="B293">
-        <v>386</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -8602,7 +8378,7 @@
         <v>29</v>
       </c>
       <c r="B294">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -8610,7 +8386,7 @@
         <v>29</v>
       </c>
       <c r="B295">
-        <v>430</v>
+        <v>43</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -8618,7 +8394,7 @@
         <v>29</v>
       </c>
       <c r="B296">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -8626,7 +8402,7 @@
         <v>29</v>
       </c>
       <c r="B297">
-        <v>375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -8634,7 +8410,7 @@
         <v>29</v>
       </c>
       <c r="B298">
-        <v>396</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -8642,7 +8418,7 @@
         <v>29</v>
       </c>
       <c r="B299">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -8650,7 +8426,7 @@
         <v>29</v>
       </c>
       <c r="B300">
-        <v>415</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -8658,7 +8434,7 @@
         <v>29</v>
       </c>
       <c r="B301">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -8666,7 +8442,7 @@
         <v>29</v>
       </c>
       <c r="B302">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -8674,7 +8450,7 @@
         <v>29</v>
       </c>
       <c r="B303">
-        <v>381</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -8682,7 +8458,7 @@
         <v>29</v>
       </c>
       <c r="B304">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -8690,7 +8466,7 @@
         <v>29</v>
       </c>
       <c r="B305">
-        <v>392</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -8698,7 +8474,7 @@
         <v>29</v>
       </c>
       <c r="B306">
-        <v>404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -8706,7 +8482,7 @@
         <v>29</v>
       </c>
       <c r="B307">
-        <v>417</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -8714,7 +8490,7 @@
         <v>29</v>
       </c>
       <c r="B308">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -8722,7 +8498,7 @@
         <v>29</v>
       </c>
       <c r="B309">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -8730,7 +8506,7 @@
         <v>29</v>
       </c>
       <c r="B310">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -8738,7 +8514,7 @@
         <v>29</v>
       </c>
       <c r="B311">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -8746,7 +8522,7 @@
         <v>29</v>
       </c>
       <c r="B312">
-        <v>382</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -8754,7 +8530,7 @@
         <v>29</v>
       </c>
       <c r="B313">
-        <v>414</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -8762,7 +8538,7 @@
         <v>29</v>
       </c>
       <c r="B314">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -8770,7 +8546,7 @@
         <v>29</v>
       </c>
       <c r="B315">
-        <v>439</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -8778,7 +8554,7 @@
         <v>29</v>
       </c>
       <c r="B316">
-        <v>375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -8786,7 +8562,7 @@
         <v>29</v>
       </c>
       <c r="B317">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -8794,7 +8570,7 @@
         <v>29</v>
       </c>
       <c r="B318">
-        <v>415</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -8802,7 +8578,7 @@
         <v>29</v>
       </c>
       <c r="B319">
-        <v>383</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -8810,7 +8586,7 @@
         <v>29</v>
       </c>
       <c r="B320">
-        <v>392</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -8818,7 +8594,7 @@
         <v>29</v>
       </c>
       <c r="B321">
-        <v>371</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -8826,7 +8602,7 @@
         <v>29</v>
       </c>
       <c r="B322">
-        <v>431</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -8834,7 +8610,7 @@
         <v>29</v>
       </c>
       <c r="B323">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -8842,7 +8618,7 @@
         <v>29</v>
       </c>
       <c r="B324">
-        <v>384</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -8850,7 +8626,7 @@
         <v>29</v>
       </c>
       <c r="B325">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -8858,7 +8634,7 @@
         <v>29</v>
       </c>
       <c r="B326">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -8866,7 +8642,7 @@
         <v>29</v>
       </c>
       <c r="B327">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -8874,7 +8650,7 @@
         <v>29</v>
       </c>
       <c r="B328">
-        <v>402</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -8882,7 +8658,7 @@
         <v>29</v>
       </c>
       <c r="B329">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -8890,7 +8666,7 @@
         <v>29</v>
       </c>
       <c r="B330">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -8898,7 +8674,7 @@
         <v>29</v>
       </c>
       <c r="B331">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -8906,7 +8682,7 @@
         <v>29</v>
       </c>
       <c r="B332">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -8914,7 +8690,7 @@
         <v>29</v>
       </c>
       <c r="B333">
-        <v>395</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -8922,7 +8698,7 @@
         <v>29</v>
       </c>
       <c r="B334">
-        <v>401</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -8930,7 +8706,7 @@
         <v>29</v>
       </c>
       <c r="B335">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -8938,7 +8714,7 @@
         <v>29</v>
       </c>
       <c r="B336">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -8946,7 +8722,7 @@
         <v>29</v>
       </c>
       <c r="B337">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -8954,7 +8730,7 @@
         <v>29</v>
       </c>
       <c r="B338">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -8962,7 +8738,7 @@
         <v>29</v>
       </c>
       <c r="B339">
-        <v>440</v>
+        <v>44</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -8970,7 +8746,7 @@
         <v>29</v>
       </c>
       <c r="B340">
-        <v>403</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -8978,7 +8754,7 @@
         <v>29</v>
       </c>
       <c r="B341">
-        <v>456</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -8986,7 +8762,7 @@
         <v>29</v>
       </c>
       <c r="B342">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -8994,7 +8770,7 @@
         <v>29</v>
       </c>
       <c r="B343">
-        <v>429</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -9002,7 +8778,7 @@
         <v>29</v>
       </c>
       <c r="B344">
-        <v>384</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -9010,7 +8786,7 @@
         <v>29</v>
       </c>
       <c r="B345">
-        <v>380</v>
+        <v>38</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -9018,7 +8794,7 @@
         <v>29</v>
       </c>
       <c r="B346">
-        <v>396</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -9026,7 +8802,7 @@
         <v>29</v>
       </c>
       <c r="B347">
-        <v>394</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -9034,7 +8810,7 @@
         <v>29</v>
       </c>
       <c r="B348">
-        <v>414</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -9042,7 +8818,7 @@
         <v>29</v>
       </c>
       <c r="B349">
-        <v>423</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -9050,7 +8826,7 @@
         <v>29</v>
       </c>
       <c r="B350">
-        <v>378</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -9058,7 +8834,7 @@
         <v>29</v>
       </c>
       <c r="B351">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -9066,7 +8842,7 @@
         <v>29</v>
       </c>
       <c r="B352">
-        <v>389</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -9074,7 +8850,7 @@
         <v>29</v>
       </c>
       <c r="B353">
-        <v>380</v>
+        <v>38</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -9082,7 +8858,7 @@
         <v>29</v>
       </c>
       <c r="B354">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -9090,7 +8866,7 @@
         <v>29</v>
       </c>
       <c r="B355">
-        <v>383</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -9098,7 +8874,7 @@
         <v>29</v>
       </c>
       <c r="B356">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -9106,7 +8882,7 @@
         <v>29</v>
       </c>
       <c r="B357">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -9114,7 +8890,7 @@
         <v>29</v>
       </c>
       <c r="B358">
-        <v>401</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -9122,7 +8898,7 @@
         <v>29</v>
       </c>
       <c r="B359">
-        <v>378</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -9130,7 +8906,7 @@
         <v>29</v>
       </c>
       <c r="B360">
-        <v>412</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -9138,7 +8914,7 @@
         <v>29</v>
       </c>
       <c r="B361">
-        <v>463</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -9146,7 +8922,7 @@
         <v>30</v>
       </c>
       <c r="B362">
-        <v>430</v>
+        <v>43</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -9154,7 +8930,7 @@
         <v>30</v>
       </c>
       <c r="B363">
-        <v>421</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -9162,7 +8938,7 @@
         <v>30</v>
       </c>
       <c r="B364">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -9170,7 +8946,7 @@
         <v>30</v>
       </c>
       <c r="B365">
-        <v>396</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -9178,7 +8954,7 @@
         <v>30</v>
       </c>
       <c r="B366">
-        <v>395</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -9186,7 +8962,7 @@
         <v>30</v>
       </c>
       <c r="B367">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -9194,7 +8970,7 @@
         <v>30</v>
       </c>
       <c r="B368">
-        <v>374</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -9202,7 +8978,7 @@
         <v>30</v>
       </c>
       <c r="B369">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -9210,7 +8986,7 @@
         <v>30</v>
       </c>
       <c r="B370">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -9218,7 +8994,7 @@
         <v>30</v>
       </c>
       <c r="B371">
-        <v>435</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -9226,7 +9002,7 @@
         <v>30</v>
       </c>
       <c r="B372">
-        <v>393</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -9234,7 +9010,7 @@
         <v>30</v>
       </c>
       <c r="B373">
-        <v>402</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -9242,7 +9018,7 @@
         <v>30</v>
       </c>
       <c r="B374">
-        <v>408</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -9250,7 +9026,7 @@
         <v>30</v>
       </c>
       <c r="B375">
-        <v>417</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -9258,7 +9034,7 @@
         <v>30</v>
       </c>
       <c r="B376">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -9266,7 +9042,7 @@
         <v>30</v>
       </c>
       <c r="B377">
-        <v>397</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -9274,7 +9050,7 @@
         <v>30</v>
       </c>
       <c r="B378">
-        <v>402</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -9282,7 +9058,7 @@
         <v>30</v>
       </c>
       <c r="B379">
-        <v>449</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -9290,7 +9066,7 @@
         <v>30</v>
       </c>
       <c r="B380">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -9298,7 +9074,7 @@
         <v>30</v>
       </c>
       <c r="B381">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -9306,7 +9082,7 @@
         <v>30</v>
       </c>
       <c r="B382">
-        <v>419</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -9314,7 +9090,7 @@
         <v>30</v>
       </c>
       <c r="B383">
-        <v>402</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -9322,7 +9098,7 @@
         <v>30</v>
       </c>
       <c r="B384">
-        <v>365</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -9330,7 +9106,7 @@
         <v>30</v>
       </c>
       <c r="B385">
-        <v>438</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -9338,7 +9114,7 @@
         <v>30</v>
       </c>
       <c r="B386">
-        <v>436</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -9346,7 +9122,7 @@
         <v>30</v>
       </c>
       <c r="B387">
-        <v>388</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -9354,7 +9130,7 @@
         <v>30</v>
       </c>
       <c r="B388">
-        <v>364</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -9362,7 +9138,7 @@
         <v>30</v>
       </c>
       <c r="B389">
-        <v>457</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -9370,7 +9146,7 @@
         <v>30</v>
       </c>
       <c r="B390">
-        <v>444</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -9378,7 +9154,7 @@
         <v>30</v>
       </c>
       <c r="B391">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -9386,7 +9162,7 @@
         <v>30</v>
       </c>
       <c r="B392">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -9394,7 +9170,7 @@
         <v>30</v>
       </c>
       <c r="B393">
-        <v>371</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -9402,7 +9178,7 @@
         <v>30</v>
       </c>
       <c r="B394">
-        <v>418</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -9410,7 +9186,7 @@
         <v>30</v>
       </c>
       <c r="B395">
-        <v>377</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -9418,7 +9194,7 @@
         <v>30</v>
       </c>
       <c r="B396">
-        <v>448</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -9426,7 +9202,7 @@
         <v>30</v>
       </c>
       <c r="B397">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -9434,7 +9210,7 @@
         <v>30</v>
       </c>
       <c r="B398">
-        <v>458</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -9442,7 +9218,7 @@
         <v>30</v>
       </c>
       <c r="B399">
-        <v>418</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -9450,7 +9226,7 @@
         <v>30</v>
       </c>
       <c r="B400">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -9458,7 +9234,7 @@
         <v>30</v>
       </c>
       <c r="B401">
-        <v>372</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -9466,7 +9242,7 @@
         <v>30</v>
       </c>
       <c r="B402">
-        <v>377</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -9474,7 +9250,7 @@
         <v>30</v>
       </c>
       <c r="B403">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -9482,7 +9258,7 @@
         <v>30</v>
       </c>
       <c r="B404">
-        <v>419</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -9490,7 +9266,7 @@
         <v>30</v>
       </c>
       <c r="B405">
-        <v>383</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -9498,7 +9274,7 @@
         <v>30</v>
       </c>
       <c r="B406">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -9506,7 +9282,7 @@
         <v>30</v>
       </c>
       <c r="B407">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -9514,7 +9290,7 @@
         <v>30</v>
       </c>
       <c r="B408">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -9522,7 +9298,7 @@
         <v>30</v>
       </c>
       <c r="B409">
-        <v>380</v>
+        <v>38</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -9530,7 +9306,7 @@
         <v>30</v>
       </c>
       <c r="B410">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -9538,7 +9314,7 @@
         <v>30</v>
       </c>
       <c r="B411">
-        <v>396</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -9546,7 +9322,7 @@
         <v>30</v>
       </c>
       <c r="B412">
-        <v>378</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -9554,7 +9330,7 @@
         <v>30</v>
       </c>
       <c r="B413">
-        <v>383</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -9562,7 +9338,7 @@
         <v>30</v>
       </c>
       <c r="B414">
-        <v>412</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -9570,7 +9346,7 @@
         <v>30</v>
       </c>
       <c r="B415">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -9578,7 +9354,7 @@
         <v>30</v>
       </c>
       <c r="B416">
-        <v>389</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -9586,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="B417">
-        <v>446</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -9594,7 +9370,7 @@
         <v>30</v>
       </c>
       <c r="B418">
-        <v>412</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -9602,7 +9378,7 @@
         <v>30</v>
       </c>
       <c r="B419">
-        <v>438</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -9610,7 +9386,7 @@
         <v>30</v>
       </c>
       <c r="B420">
-        <v>452</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -9618,7 +9394,7 @@
         <v>30</v>
       </c>
       <c r="B421">
-        <v>427</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -9626,7 +9402,7 @@
         <v>30</v>
       </c>
       <c r="B422">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -9634,7 +9410,7 @@
         <v>30</v>
       </c>
       <c r="B423">
-        <v>377</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -9642,7 +9418,7 @@
         <v>30</v>
       </c>
       <c r="B424">
-        <v>441</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -9650,7 +9426,7 @@
         <v>30</v>
       </c>
       <c r="B425">
-        <v>399</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -9658,7 +9434,7 @@
         <v>30</v>
       </c>
       <c r="B426">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -9666,7 +9442,7 @@
         <v>30</v>
       </c>
       <c r="B427">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -9674,7 +9450,7 @@
         <v>30</v>
       </c>
       <c r="B428">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -9682,7 +9458,7 @@
         <v>30</v>
       </c>
       <c r="B429">
-        <v>421</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -9690,7 +9466,7 @@
         <v>30</v>
       </c>
       <c r="B430">
-        <v>386</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -9698,7 +9474,7 @@
         <v>30</v>
       </c>
       <c r="B431">
-        <v>434</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -9706,7 +9482,7 @@
         <v>30</v>
       </c>
       <c r="B432">
-        <v>408</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -9714,7 +9490,7 @@
         <v>30</v>
       </c>
       <c r="B433">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -9722,7 +9498,7 @@
         <v>30</v>
       </c>
       <c r="B434">
-        <v>408</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -9730,7 +9506,7 @@
         <v>30</v>
       </c>
       <c r="B435">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -9738,7 +9514,7 @@
         <v>30</v>
       </c>
       <c r="B436">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -9746,7 +9522,7 @@
         <v>30</v>
       </c>
       <c r="B437">
-        <v>405</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -9754,7 +9530,7 @@
         <v>30</v>
       </c>
       <c r="B438">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -9762,7 +9538,7 @@
         <v>30</v>
       </c>
       <c r="B439">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -9770,7 +9546,7 @@
         <v>30</v>
       </c>
       <c r="B440">
-        <v>396</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -9778,7 +9554,7 @@
         <v>30</v>
       </c>
       <c r="B441">
-        <v>415</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -9786,7 +9562,7 @@
         <v>30</v>
       </c>
       <c r="B442">
-        <v>431</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -9794,7 +9570,7 @@
         <v>30</v>
       </c>
       <c r="B443">
-        <v>411</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -9802,7 +9578,7 @@
         <v>30</v>
       </c>
       <c r="B444">
-        <v>407</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -9810,7 +9586,7 @@
         <v>30</v>
       </c>
       <c r="B445">
-        <v>397</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -9818,7 +9594,7 @@
         <v>30</v>
       </c>
       <c r="B446">
-        <v>425</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -9826,7 +9602,7 @@
         <v>30</v>
       </c>
       <c r="B447">
-        <v>438</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -9834,7 +9610,7 @@
         <v>30</v>
       </c>
       <c r="B448">
-        <v>417</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -9842,7 +9618,7 @@
         <v>30</v>
       </c>
       <c r="B449">
-        <v>379</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -9850,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="B450">
-        <v>413</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -9858,7 +9634,7 @@
         <v>30</v>
       </c>
       <c r="B451">
-        <v>426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -9866,7 +9642,7 @@
         <v>30</v>
       </c>
       <c r="B452">
-        <v>402</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -9874,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="B453">
-        <v>416</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -9882,7 +9658,7 @@
         <v>30</v>
       </c>
       <c r="B454">
-        <v>420</v>
+        <v>42</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -9890,7 +9666,7 @@
         <v>30</v>
       </c>
       <c r="B455">
-        <v>418</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -9898,7 +9674,7 @@
         <v>30</v>
       </c>
       <c r="B456">
-        <v>406</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -9906,7 +9682,7 @@
         <v>30</v>
       </c>
       <c r="B457">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -9914,7 +9690,7 @@
         <v>30</v>
       </c>
       <c r="B458">
-        <v>439</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -9922,7 +9698,7 @@
         <v>30</v>
       </c>
       <c r="B459">
-        <v>422</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -9930,7 +9706,7 @@
         <v>30</v>
       </c>
       <c r="B460">
-        <v>448</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -9938,7 +9714,7 @@
         <v>30</v>
       </c>
       <c r="B461">
-        <v>375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -9946,7 +9722,7 @@
         <v>30</v>
       </c>
       <c r="B462">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -9954,7 +9730,7 @@
         <v>30</v>
       </c>
       <c r="B463">
-        <v>414</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -9962,7 +9738,7 @@
         <v>30</v>
       </c>
       <c r="B464">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -9970,7 +9746,7 @@
         <v>30</v>
       </c>
       <c r="B465">
-        <v>447</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -9978,7 +9754,7 @@
         <v>30</v>
       </c>
       <c r="B466">
-        <v>414</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -9986,7 +9762,7 @@
         <v>30</v>
       </c>
       <c r="B467">
-        <v>454</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -9994,7 +9770,7 @@
         <v>30</v>
       </c>
       <c r="B468">
-        <v>385</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -10002,7 +9778,7 @@
         <v>30</v>
       </c>
       <c r="B469">
-        <v>381</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -10010,7 +9786,7 @@
         <v>30</v>
       </c>
       <c r="B470">
-        <v>398</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -10018,7 +9794,7 @@
         <v>30</v>
       </c>
       <c r="B471">
-        <v>432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -10026,7 +9802,7 @@
         <v>30</v>
       </c>
       <c r="B472">
-        <v>428</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -10034,7 +9810,7 @@
         <v>30</v>
       </c>
       <c r="B473">
-        <v>436</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -10042,7 +9818,7 @@
         <v>30</v>
       </c>
       <c r="B474">
-        <v>424</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -10050,7 +9826,7 @@
         <v>30</v>
       </c>
       <c r="B475">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -10058,7 +9834,7 @@
         <v>30</v>
       </c>
       <c r="B476">
-        <v>420</v>
+        <v>42</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -10066,7 +9842,7 @@
         <v>30</v>
       </c>
       <c r="B477">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -10074,7 +9850,7 @@
         <v>30</v>
       </c>
       <c r="B478">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -10082,7 +9858,7 @@
         <v>30</v>
       </c>
       <c r="B479">
-        <v>449</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -10090,7 +9866,7 @@
         <v>30</v>
       </c>
       <c r="B480">
-        <v>390</v>
+        <v>39</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -10098,7 +9874,7 @@
         <v>30</v>
       </c>
       <c r="B481">
-        <v>409</v>
+        <v>40.9</v>
       </c>
     </row>
   </sheetData>
@@ -10110,7 +9886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF245CD-3A50-A74C-9921-53477268C6C3}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
